--- a/backtest/etf univ.xlsx
+++ b/backtest/etf univ.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\0 Public_Land\99.Working Room\99.Working Room(솔루션본부)\강세진\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="20201007" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -4977,12 +4972,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5115,7 +5110,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5150,7 +5145,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5327,24 +5322,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="P3" sqref="P3:P208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.875" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="1" bestFit="1" customWidth="1"/>
@@ -5364,8 +5359,8 @@
     <col min="16" max="16" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="10.5" customHeight="1"/>
+    <row r="2" spans="2:16" ht="31.5" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>247</v>
       </c>
@@ -5409,7 +5404,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16">
       <c r="B3" s="6" t="s">
         <v>219</v>
       </c>
@@ -5464,11 +5459,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P3" t="str">
-        <f>"'" &amp; C3 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C3,Sheet1!$A:$A,0))</f>
-        <v>'XLB' : 'xlb_spdr_material'</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C3 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C3,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'XLB' : 'xlb_spdr_material',</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
       <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -5521,11 +5516,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P4" t="str">
-        <f>"'" &amp; C4 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C4,Sheet1!$A:$A,0))</f>
-        <v>'XLY' : 'xly_spdr_consumer_disc'</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C4 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C4,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'XLY' : 'xly_spdr_consumer_disc',</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
       <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -5578,11 +5573,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P5" t="str">
-        <f>"'" &amp; C5 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C5,Sheet1!$A:$A,0))</f>
-        <v>'XLP' : 'xlp_spdr_consumer_stp'</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C5 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C5,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'XLP' : 'xlp_spdr_consumer_stp',</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
       <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -5635,11 +5630,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P6" t="str">
-        <f>"'" &amp; C6 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C6,Sheet1!$A:$A,0))</f>
-        <v>'XLE' : 'xle_spdr_energy'</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C6 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C6,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'XLE' : 'xle_spdr_energy',</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
       <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -5692,11 +5687,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P7" t="str">
-        <f>"'" &amp; C7 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C7,Sheet1!$A:$A,0))</f>
-        <v>'XLF' : 'xlf_spdr_financial'</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C7 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C7,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'XLF' : 'xlf_spdr_financial',</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
       <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -5749,11 +5744,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P8" t="str">
-        <f>"'" &amp; C8 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C8,Sheet1!$A:$A,0))</f>
-        <v>'XLV' : 'xlv_spdr_healthcare'</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C8 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C8,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'XLV' : 'xlv_spdr_healthcare',</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
       <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -5806,11 +5801,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P9" t="str">
-        <f>"'" &amp; C9 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C9,Sheet1!$A:$A,0))</f>
-        <v>'XLI' : 'xli_spdr_industrial'</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C9 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C9,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'XLI' : 'xli_spdr_industrial',</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
       <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -5863,11 +5858,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P10" t="str">
-        <f>"'" &amp; C10 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C10,Sheet1!$A:$A,0))</f>
-        <v>'IYR' : 'iyr_ishares_reit'</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C10 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C10,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IYR' : 'iyr_ishares_reit',</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
       <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -5920,11 +5915,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P11" t="str">
-        <f>"'" &amp; C11 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C11,Sheet1!$A:$A,0))</f>
-        <v>'XLK' : 'xlk_spdr_tech'</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C11 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C11,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'XLK' : 'xlk_spdr_tech',</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
       <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -5977,11 +5972,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P12" t="str">
-        <f>"'" &amp; C12 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C12,Sheet1!$A:$A,0))</f>
-        <v>'IYZ' : 'iyz_ishares_telcom'</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C12 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C12,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IYZ' : 'iyz_ishares_telcom',</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13" s="6"/>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -6034,11 +6029,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P13" t="str">
-        <f>"'" &amp; C13 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C13,Sheet1!$A:$A,0))</f>
-        <v>'XLU' : 'xlu_spdr_util'</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C13 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C13,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'XLU' : 'xlu_spdr_util',</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" s="6" t="s">
         <v>220</v>
       </c>
@@ -6093,11 +6088,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P14" t="str">
-        <f>"'" &amp; C14 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C14,Sheet1!$A:$A,0))</f>
-        <v>'RXI' : 'rxi_ishares_consumer_disc_global'</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C14 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C14,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'RXI' : 'rxi_ishares_consumer_disc_global',</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15" s="6"/>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -6150,11 +6145,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P15" t="str">
-        <f>"'" &amp; C15 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C15,Sheet1!$A:$A,0))</f>
-        <v>'KXI' : 'kxi_ishares_consumer_stp_global'</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C15 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C15,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'KXI' : 'kxi_ishares_consumer_stp_global',</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -6207,11 +6202,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P16" t="str">
-        <f>"'" &amp; C16 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C16,Sheet1!$A:$A,0))</f>
-        <v>'IXC' : 'ixc_ishares_energy_global'</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C16 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C16,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IXC' : 'ixc_ishares_energy_global',</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17" s="6"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -6264,11 +6259,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P17" t="str">
-        <f>"'" &amp; C17 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C17,Sheet1!$A:$A,0))</f>
-        <v>'IXG' : 'ixg_ishares_financial_global'</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C17 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C17,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IXG' : 'ixg_ishares_financial_global',</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
       <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -6321,11 +6316,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P18" t="str">
-        <f>"'" &amp; C18 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C18,Sheet1!$A:$A,0))</f>
-        <v>'IXJ' : 'ixj_ishares_healthcare_global'</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C18 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C18,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IXJ' : 'ixj_ishares_healthcare_global',</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
         <v>16</v>
@@ -6378,11 +6373,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P19" t="str">
-        <f>"'" &amp; C19 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C19,Sheet1!$A:$A,0))</f>
-        <v>'EXI' : 'exi_ishares_industrial_global'</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C19 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C19,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EXI' : 'exi_ishares_industrial_global',</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
       <c r="B20" s="6"/>
       <c r="C20" s="2" t="s">
         <v>17</v>
@@ -6435,11 +6430,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P20" t="str">
-        <f>"'" &amp; C20 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C20,Sheet1!$A:$A,0))</f>
-        <v>'MXI' : 'mxi_ishares_material_global'</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C20 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C20,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'MXI' : 'mxi_ishares_material_global',</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21" s="6"/>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -6492,11 +6487,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P21" t="str">
-        <f>"'" &amp; C21 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C21,Sheet1!$A:$A,0))</f>
-        <v>'IXN' : 'ixn_ishares_tech_global'</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C21 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C21,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IXN' : 'ixn_ishares_tech_global',</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22" s="6"/>
       <c r="C22" s="2" t="s">
         <v>19</v>
@@ -6549,11 +6544,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P22" t="str">
-        <f>"'" &amp; C22 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C22,Sheet1!$A:$A,0))</f>
-        <v>'IXP' : 'ixp_ishares_telcom_global'</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C22 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C22,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IXP' : 'ixp_ishares_telcom_global',</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23" s="6"/>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -6606,11 +6601,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P23" t="str">
-        <f>"'" &amp; C23 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C23,Sheet1!$A:$A,0))</f>
-        <v>'JXI' : 'jxi_ishares_util_global'</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C23 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C23,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'JXI' : 'jxi_ishares_util_global',</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
       <c r="B24" s="6"/>
       <c r="C24" s="2" t="s">
         <v>21</v>
@@ -6663,11 +6658,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P24" t="str">
-        <f>"'" &amp; C24 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C24,Sheet1!$A:$A,0))</f>
-        <v>'RWX' : 'rwx_spdr_global_reit'</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C24 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C24,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'RWX' : 'rwx_spdr_global_reit',</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
       <c r="B25" s="6" t="s">
         <v>221</v>
       </c>
@@ -6722,11 +6717,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P25" t="str">
-        <f>"'" &amp; C25 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C25,Sheet1!$A:$A,0))</f>
-        <v>'CARZ' : 'carz_firstrust_automotive'</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C25 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C25,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'CARZ' : 'carz_firstrust_automotive',</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
       <c r="B26" s="6"/>
       <c r="C26" s="2" t="s">
         <v>23</v>
@@ -6779,11 +6774,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P26" t="str">
-        <f>"'" &amp; C26 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C26,Sheet1!$A:$A,0))</f>
-        <v>'IYC' : 'iyc_ishares_consumer_service'</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C26 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C26,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IYC' : 'iyc_ishares_consumer_service',</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
       <c r="B27" s="6"/>
       <c r="C27" s="2" t="s">
         <v>24</v>
@@ -6836,11 +6831,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P27" t="str">
-        <f>"'" &amp; C27 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C27,Sheet1!$A:$A,0))</f>
-        <v>'BJK' : 'bjk_vaneck_gaming'</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C27 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C27,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'BJK' : 'bjk_vaneck_gaming',</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
       <c r="B28" s="6"/>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -6893,11 +6888,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P28" t="str">
-        <f>"'" &amp; C28 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C28,Sheet1!$A:$A,0))</f>
-        <v>'PBS' : 'pbs_invesco_media'</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C28 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C28,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'PBS' : 'pbs_invesco_media',</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
       <c r="B29" s="6"/>
       <c r="C29" s="2" t="s">
         <v>26</v>
@@ -6950,11 +6945,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P29" t="str">
-        <f>"'" &amp; C29 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C29,Sheet1!$A:$A,0))</f>
-        <v>'IBUY' : 'ibuy_amplify_online_retail'</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C29 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C29,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IBUY' : 'ibuy_amplify_online_retail',</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
       <c r="B30" s="6" t="s">
         <v>222</v>
       </c>
@@ -7009,11 +7004,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P30" t="str">
-        <f>"'" &amp; C30 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C30,Sheet1!$A:$A,0))</f>
-        <v>'IYK' : 'iyk_ishares_consumer_goods'</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C30 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C30,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IYK' : 'iyk_ishares_consumer_goods',</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
       <c r="B31" s="6"/>
       <c r="C31" s="2" t="s">
         <v>28</v>
@@ -7066,11 +7061,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P31" t="str">
-        <f>"'" &amp; C31 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C31,Sheet1!$A:$A,0))</f>
-        <v>'PBJ' : 'pbj_invesco_food_beverage'</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C31 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C31,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'PBJ' : 'pbj_invesco_food_beverage',</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
       <c r="B32" s="6" t="s">
         <v>224</v>
       </c>
@@ -7125,11 +7120,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P32" t="str">
-        <f>"'" &amp; C32 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C32,Sheet1!$A:$A,0))</f>
-        <v>'AMLP' : 'amlp_alerian_mlp'</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C32 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C32,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'AMLP' : 'amlp_alerian_mlp',</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
       <c r="B33" s="6"/>
       <c r="C33" s="2" t="s">
         <v>30</v>
@@ -7182,11 +7177,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P33" t="str">
-        <f>"'" &amp; C33 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C33,Sheet1!$A:$A,0))</f>
-        <v>'FCG' : 'fcg_firstrust_natural_gas'</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C33 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C33,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'FCG' : 'fcg_firstrust_natural_gas',</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
       <c r="B34" s="6"/>
       <c r="C34" s="2" t="s">
         <v>31</v>
@@ -7239,11 +7234,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P34" t="str">
-        <f>"'" &amp; C34 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C34,Sheet1!$A:$A,0))</f>
-        <v>'XOP' : 'xop_spdr_exploration'</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C34 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C34,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'XOP' : 'xop_spdr_exploration',</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
       <c r="B35" s="6"/>
       <c r="C35" s="2" t="s">
         <v>32</v>
@@ -7296,11 +7291,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P35" t="str">
-        <f>"'" &amp; C35 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C35,Sheet1!$A:$A,0))</f>
-        <v>'OIH' : 'oih_vaneck_oil_service'</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C35 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C35,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'OIH' : 'oih_vaneck_oil_service',</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
       <c r="B36" s="6"/>
       <c r="C36" s="2" t="s">
         <v>33</v>
@@ -7353,11 +7348,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P36" t="str">
-        <f>"'" &amp; C36 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C36,Sheet1!$A:$A,0))</f>
-        <v>'TAN' : 'tan_invesco_solar'</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C36 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C36,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'TAN' : 'tan_invesco_solar',</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
       <c r="B37" s="6"/>
       <c r="C37" s="2" t="s">
         <v>34</v>
@@ -7410,11 +7405,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P37" t="str">
-        <f>"'" &amp; C37 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C37,Sheet1!$A:$A,0))</f>
-        <v>'FAN' : 'fan_firstrust_wind'</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C37 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C37,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'FAN' : 'fan_firstrust_wind',</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
       <c r="B38" s="6" t="s">
         <v>226</v>
       </c>
@@ -7469,11 +7464,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P38" t="str">
-        <f>"'" &amp; C38 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C38,Sheet1!$A:$A,0))</f>
-        <v>'KBE' : 'kbe_spdr_bank'</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C38 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C38,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'KBE' : 'kbe_spdr_bank',</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16">
       <c r="B39" s="6"/>
       <c r="C39" s="2" t="s">
         <v>36</v>
@@ -7526,11 +7521,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P39" t="str">
-        <f>"'" &amp; C39 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C39,Sheet1!$A:$A,0))</f>
-        <v>'IAI' : 'iai_ishares_broker'</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C39 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C39,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IAI' : 'iai_ishares_broker',</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16">
       <c r="B40" s="6"/>
       <c r="C40" s="2" t="s">
         <v>37</v>
@@ -7583,11 +7578,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P40" t="str">
-        <f>"'" &amp; C40 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C40,Sheet1!$A:$A,0))</f>
-        <v>'BIZD' : 'bizd_vaneck_bdc'</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C40 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C40,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'BIZD' : 'bizd_vaneck_bdc',</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
       <c r="B41" s="6"/>
       <c r="C41" s="2" t="s">
         <v>38</v>
@@ -7640,11 +7635,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P41" t="str">
-        <f>"'" &amp; C41 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C41,Sheet1!$A:$A,0))</f>
-        <v>'KCE' : 'kce_spdr_capital_market'</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C41 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C41,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'KCE' : 'kce_spdr_capital_market',</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16">
       <c r="B42" s="6"/>
       <c r="C42" s="2" t="s">
         <v>39</v>
@@ -7697,11 +7692,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P42" t="str">
-        <f>"'" &amp; C42 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C42,Sheet1!$A:$A,0))</f>
-        <v>'QABA' : 'qaba_firstrust_community_bank'</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C42 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C42,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'QABA' : 'qaba_firstrust_community_bank',</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16">
       <c r="B43" s="6"/>
       <c r="C43" s="2" t="s">
         <v>40</v>
@@ -7754,11 +7749,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P43" t="str">
-        <f>"'" &amp; C43 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C43,Sheet1!$A:$A,0))</f>
-        <v>'IYG' : 'iyg_ishares_financial_service'</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C43 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C43,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IYG' : 'iyg_ishares_financial_service',</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16">
       <c r="B44" s="6"/>
       <c r="C44" s="2" t="s">
         <v>41</v>
@@ -7811,11 +7806,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P44" t="str">
-        <f>"'" &amp; C44 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C44,Sheet1!$A:$A,0))</f>
-        <v>'KIE' : 'kie_spdr_insurance'</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C44 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C44,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'KIE' : 'kie_spdr_insurance',</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16">
       <c r="B45" s="6"/>
       <c r="C45" s="2" t="s">
         <v>42</v>
@@ -7868,11 +7863,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P45" t="str">
-        <f>"'" &amp; C45 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C45,Sheet1!$A:$A,0))</f>
-        <v>'PSP' : 'psp_invesco_pe'</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C45 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C45,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'PSP' : 'psp_invesco_pe',</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16">
       <c r="B46" s="6"/>
       <c r="C46" s="2" t="s">
         <v>43</v>
@@ -7925,11 +7920,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P46" t="str">
-        <f>"'" &amp; C46 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C46,Sheet1!$A:$A,0))</f>
-        <v>'KRE' : 'kre_spdr_regional_bank'</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C46 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C46,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'KRE' : 'kre_spdr_regional_bank',</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16">
       <c r="B47" s="6" t="s">
         <v>228</v>
       </c>
@@ -7984,11 +7979,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P47" t="str">
-        <f>"'" &amp; C47 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C47,Sheet1!$A:$A,0))</f>
-        <v>'IBB' : 'ibb_ishares_bio'</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C47 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C47,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IBB' : 'ibb_ishares_bio',</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16">
       <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
         <v>45</v>
@@ -8041,11 +8036,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P48" t="str">
-        <f>"'" &amp; C48 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C48,Sheet1!$A:$A,0))</f>
-        <v>'IHF' : 'ihf_ishares_healthcare_service'</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C48 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C48,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IHF' : 'ihf_ishares_healthcare_service',</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16">
       <c r="B49" s="6"/>
       <c r="C49" s="2" t="s">
         <v>46</v>
@@ -8098,11 +8093,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P49" t="str">
-        <f>"'" &amp; C49 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C49,Sheet1!$A:$A,0))</f>
-        <v>'IHI' : 'ihi_ishares_medical_device'</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C49 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C49,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IHI' : 'ihi_ishares_medical_device',</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16">
       <c r="B50" s="6"/>
       <c r="C50" s="2" t="s">
         <v>47</v>
@@ -8155,11 +8150,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P50" t="str">
-        <f>"'" &amp; C50 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C50,Sheet1!$A:$A,0))</f>
-        <v>'PJP' : 'pjp_invesco_pharma'</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C50 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C50,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'PJP' : 'pjp_invesco_pharma',</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16">
       <c r="B51" s="6" t="s">
         <v>230</v>
       </c>
@@ -8214,11 +8209,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P51" t="str">
-        <f>"'" &amp; C51 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C51,Sheet1!$A:$A,0))</f>
-        <v>'ITA' : 'ita_ishares_aerospace'</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C51 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C51,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'ITA' : 'ita_ishares_aerospace',</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16">
       <c r="B52" s="6"/>
       <c r="C52" s="2" t="s">
         <v>49</v>
@@ -8271,11 +8266,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P52" t="str">
-        <f>"'" &amp; C52 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C52,Sheet1!$A:$A,0))</f>
-        <v>'JETS' : 'jets_usglobal_airlines'</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C52 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C52,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'JETS' : 'jets_usglobal_airlines',</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16">
       <c r="B53" s="6"/>
       <c r="C53" s="2" t="s">
         <v>50</v>
@@ -8328,11 +8323,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P53" t="str">
-        <f>"'" &amp; C53 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C53,Sheet1!$A:$A,0))</f>
-        <v>'IYT' : 'iyt_ishares_transportation'</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C53 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C53,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IYT' : 'iyt_ishares_transportation',</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16">
       <c r="B54" s="6"/>
       <c r="C54" s="2" t="s">
         <v>51</v>
@@ -8385,11 +8380,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P54" t="str">
-        <f>"'" &amp; C54 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C54,Sheet1!$A:$A,0))</f>
-        <v>'CGW' : 'cgw_invesco_water'</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C54 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C54,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'CGW' : 'cgw_invesco_water',</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16">
       <c r="B55" s="6" t="s">
         <v>232</v>
       </c>
@@ -8444,11 +8439,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P55" t="str">
-        <f>"'" &amp; C55 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C55,Sheet1!$A:$A,0))</f>
-        <v>'MOO' : 'moo_vaneck_agribiz'</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C55 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C55,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'MOO' : 'moo_vaneck_agribiz',</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16">
       <c r="B56" s="6"/>
       <c r="C56" s="2" t="s">
         <v>53</v>
@@ -8501,11 +8496,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P56" t="str">
-        <f>"'" &amp; C56 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C56,Sheet1!$A:$A,0))</f>
-        <v>'GDX' : 'gdx_vaneck_gold_miner'</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C56 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C56,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'GDX' : 'gdx_vaneck_gold_miner',</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16">
       <c r="B57" s="6"/>
       <c r="C57" s="2" t="s">
         <v>54</v>
@@ -8558,11 +8553,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P57" t="str">
-        <f>"'" &amp; C57 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C57,Sheet1!$A:$A,0))</f>
-        <v>'SIL' : 'sil_globalx_silver_miner'</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C57 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C57,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'SIL' : 'sil_globalx_silver_miner',</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16">
       <c r="B58" s="6"/>
       <c r="C58" s="2" t="s">
         <v>55</v>
@@ -8615,11 +8610,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P58" t="str">
-        <f>"'" &amp; C58 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C58,Sheet1!$A:$A,0))</f>
-        <v>'ITB' : 'itb_ishares_homebuilder'</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C58 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C58,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'ITB' : 'itb_ishares_homebuilder',</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16">
       <c r="B59" s="6"/>
       <c r="C59" s="2" t="s">
         <v>56</v>
@@ -8672,11 +8667,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P59" t="str">
-        <f>"'" &amp; C59 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C59,Sheet1!$A:$A,0))</f>
-        <v>'LIT' : 'lit_globalx_lithium'</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C59 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C59,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'LIT' : 'lit_globalx_lithium',</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16">
       <c r="B60" s="6"/>
       <c r="C60" s="2" t="s">
         <v>57</v>
@@ -8729,11 +8724,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P60" t="str">
-        <f>"'" &amp; C60 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C60,Sheet1!$A:$A,0))</f>
-        <v>'PICK' : 'pick_ishares_metal_mining'</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C60 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C60,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'PICK' : 'pick_ishares_metal_mining',</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16">
       <c r="B61" s="6"/>
       <c r="C61" s="2" t="s">
         <v>58</v>
@@ -8786,11 +8781,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P61" t="str">
-        <f>"'" &amp; C61 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C61,Sheet1!$A:$A,0))</f>
-        <v>'GUNR' : 'gunr_flexshares_natural_resource'</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C61 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C61,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'GUNR' : 'gunr_flexshares_natural_resource',</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16">
       <c r="B62" s="6"/>
       <c r="C62" s="2" t="s">
         <v>59</v>
@@ -8843,11 +8838,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P62" t="str">
-        <f>"'" &amp; C62 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C62,Sheet1!$A:$A,0))</f>
-        <v>'SLX' : 'slx_vaneck_steel'</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C62 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C62,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'SLX' : 'slx_vaneck_steel',</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16">
       <c r="B63" s="6"/>
       <c r="C63" s="2" t="s">
         <v>60</v>
@@ -8900,11 +8895,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P63" t="str">
-        <f>"'" &amp; C63 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C63,Sheet1!$A:$A,0))</f>
-        <v>'WOOD' : 'wood_ishares_timber'</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C63 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C63,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'WOOD' : 'wood_ishares_timber',</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16">
       <c r="B64" s="6"/>
       <c r="C64" s="2" t="s">
         <v>61</v>
@@ -8957,11 +8952,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P64" t="str">
-        <f>"'" &amp; C64 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C64,Sheet1!$A:$A,0))</f>
-        <v>'URA' : 'ura_globalx_uranium'</v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C64 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C64,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'URA' : 'ura_globalx_uranium',</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16">
       <c r="B65" s="6" t="s">
         <v>234</v>
       </c>
@@ -9016,11 +9011,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P65" t="str">
-        <f>"'" &amp; C65 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C65,Sheet1!$A:$A,0))</f>
-        <v>'SKYY' : 'skyy_firstrust_cloud'</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C65 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C65,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'SKYY' : 'skyy_firstrust_cloud',</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16">
       <c r="B66" s="6"/>
       <c r="C66" s="2" t="s">
         <v>64</v>
@@ -9073,11 +9068,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P66" t="str">
-        <f>"'" &amp; C66 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C66,Sheet1!$A:$A,0))</f>
-        <v>'FDN' : 'fdn_firstrust_internet'</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C66 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C66,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'FDN' : 'fdn_firstrust_internet',</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16">
       <c r="B67" s="6"/>
       <c r="C67" s="2" t="s">
         <v>65</v>
@@ -9130,11 +9125,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P67" t="str">
-        <f>"'" &amp; C67 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C67,Sheet1!$A:$A,0))</f>
-        <v>'CIBR' : 'cibr_firstrust_cybersecurity'</v>
-      </c>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C67 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C67,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'CIBR' : 'cibr_firstrust_cybersecurity',</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16">
       <c r="B68" s="6"/>
       <c r="C68" s="2" t="s">
         <v>66</v>
@@ -9187,11 +9182,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P68" t="str">
-        <f>"'" &amp; C68 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C68,Sheet1!$A:$A,0))</f>
-        <v>'PXQ' : 'pxq_invesco_networking'</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C68 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C68,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'PXQ' : 'pxq_invesco_networking',</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16">
       <c r="B69" s="6"/>
       <c r="C69" s="2" t="s">
         <v>67</v>
@@ -9244,11 +9239,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P69" t="str">
-        <f>"'" &amp; C69 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C69,Sheet1!$A:$A,0))</f>
-        <v>'SOXX' : 'soxx_ishares_semiconductor'</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C69 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C69,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'SOXX' : 'soxx_ishares_semiconductor',</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16">
       <c r="B70" s="6"/>
       <c r="C70" s="2" t="s">
         <v>68</v>
@@ -9301,11 +9296,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P70" t="str">
-        <f>"'" &amp; C70 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C70,Sheet1!$A:$A,0))</f>
-        <v>'SOCL' : 'socl_globalx_sns'</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C70 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C70,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'SOCL' : 'socl_globalx_sns',</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16">
       <c r="B71" s="6"/>
       <c r="C71" s="2" t="s">
         <v>69</v>
@@ -9358,11 +9353,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P71" t="str">
-        <f>"'" &amp; C71 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C71,Sheet1!$A:$A,0))</f>
-        <v>'IGV' : 'igv_ishares_software'</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C71 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C71,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IGV' : 'igv_ishares_software',</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16">
       <c r="B72" s="1" t="s">
         <v>236</v>
       </c>
@@ -9417,11 +9412,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P72" t="str">
-        <f>"'" &amp; C72 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C72,Sheet1!$A:$A,0))</f>
-        <v>'IGF' : 'igf_ishares_infra'</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C72 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C72,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IGF' : 'igf_ishares_infra',</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16">
       <c r="B73" s="6" t="s">
         <v>238</v>
       </c>
@@ -9476,11 +9471,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P73" t="str">
-        <f>"'" &amp; C73 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C73,Sheet1!$A:$A,0))</f>
-        <v>'VNQ' : 'vnq_vanguard_us_reit'</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C73 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C73,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'VNQ' : 'vnq_vanguard_us_reit',</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16">
       <c r="B74" s="6"/>
       <c r="C74" s="2" t="s">
         <v>72</v>
@@ -9533,11 +9528,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P74" t="str">
-        <f>"'" &amp; C74 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C74,Sheet1!$A:$A,0))</f>
-        <v>'REM' : 'rem_ishares_us_mortgage_reit'</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C74 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C74,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'REM' : 'rem_ishares_us_mortgage_reit',</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16">
       <c r="B75" s="6" t="s">
         <v>239</v>
       </c>
@@ -9592,11 +9587,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P75" t="str">
-        <f>"'" &amp; C75 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C75,Sheet1!$A:$A,0))</f>
-        <v>'SPY' : 'spy_spdr_us'</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C75 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C75,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'SPY' : 'spy_spdr_us',</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16">
       <c r="B76" s="6"/>
       <c r="C76" s="2" t="s">
         <v>74</v>
@@ -9649,11 +9644,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P76" t="str">
-        <f>"'" &amp; C76 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C76,Sheet1!$A:$A,0))</f>
-        <v>'SSO' : 'sso_proshares_us_lev'</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C76 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C76,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'SSO' : 'sso_proshares_us_lev',</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16">
       <c r="B77" s="6"/>
       <c r="C77" s="2" t="s">
         <v>75</v>
@@ -9706,11 +9701,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P77" t="str">
-        <f>"'" &amp; C77 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C77,Sheet1!$A:$A,0))</f>
-        <v>'QQQ' : 'qqq_invesco_us_nasdaq'</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C77 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C77,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'QQQ' : 'qqq_invesco_us_nasdaq',</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16">
       <c r="B78" s="6"/>
       <c r="C78" s="2" t="s">
         <v>76</v>
@@ -9763,11 +9758,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P78" t="str">
-        <f>"'" &amp; C78 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C78,Sheet1!$A:$A,0))</f>
-        <v>'QLD' : 'qld_proshares_us_nasdaq_lev'</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C78 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C78,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'QLD' : 'qld_proshares_us_nasdaq_lev',</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16">
       <c r="B79" s="6"/>
       <c r="C79" s="2" t="s">
         <v>77</v>
@@ -9820,11 +9815,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P79" t="str">
-        <f>"'" &amp; C79 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C79,Sheet1!$A:$A,0))</f>
-        <v>'EWC' : 'ewc_ishares_canada'</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C79 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C79,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWC' : 'ewc_ishares_canada',</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16">
       <c r="B80" s="6"/>
       <c r="C80" s="2" t="s">
         <v>78</v>
@@ -9877,11 +9872,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P80" t="str">
-        <f>"'" &amp; C80 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C80,Sheet1!$A:$A,0))</f>
-        <v>'EWW' : 'eww_ishares_mexico'</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C80 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C80,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWW' : 'eww_ishares_mexico',</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16">
       <c r="B81" s="6"/>
       <c r="C81" s="2" t="s">
         <v>79</v>
@@ -9934,11 +9929,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P81" t="str">
-        <f>"'" &amp; C81 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C81,Sheet1!$A:$A,0))</f>
-        <v>'EPU' : 'epu_ishares_peru'</v>
-      </c>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C81 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C81,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EPU' : 'epu_ishares_peru',</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16">
       <c r="B82" s="6"/>
       <c r="C82" s="2" t="s">
         <v>80</v>
@@ -9991,11 +9986,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P82" t="str">
-        <f>"'" &amp; C82 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C82,Sheet1!$A:$A,0))</f>
-        <v>'EWZ' : 'ewz_ishares_brazil'</v>
-      </c>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C82 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C82,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWZ' : 'ewz_ishares_brazil',</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16">
       <c r="B83" s="6"/>
       <c r="C83" s="2" t="s">
         <v>81</v>
@@ -10048,11 +10043,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P83" t="str">
-        <f>"'" &amp; C83 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C83,Sheet1!$A:$A,0))</f>
-        <v>'ARGT' : 'argt_globalx_argentina'</v>
-      </c>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C83 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C83,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'ARGT' : 'argt_globalx_argentina',</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16">
       <c r="B84" s="6"/>
       <c r="C84" s="2" t="s">
         <v>82</v>
@@ -10105,11 +10100,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P84" t="str">
-        <f>"'" &amp; C84 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C84,Sheet1!$A:$A,0))</f>
-        <v>'EWU' : 'ewu_ishares_uk'</v>
-      </c>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C84 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C84,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWU' : 'ewu_ishares_uk',</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16">
       <c r="B85" s="6"/>
       <c r="C85" s="2" t="s">
         <v>83</v>
@@ -10162,11 +10157,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P85" t="str">
-        <f>"'" &amp; C85 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C85,Sheet1!$A:$A,0))</f>
-        <v>'EWP' : 'ewp_ishares_spain'</v>
-      </c>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C85 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C85,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWP' : 'ewp_ishares_spain',</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16">
       <c r="B86" s="6"/>
       <c r="C86" s="2" t="s">
         <v>84</v>
@@ -10219,11 +10214,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P86" t="str">
-        <f>"'" &amp; C86 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C86,Sheet1!$A:$A,0))</f>
-        <v>'EWG' : 'ewg_ishares_germany'</v>
-      </c>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C86 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C86,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWG' : 'ewg_ishares_germany',</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16">
       <c r="B87" s="6"/>
       <c r="C87" s="2" t="s">
         <v>85</v>
@@ -10276,11 +10271,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P87" t="str">
-        <f>"'" &amp; C87 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C87,Sheet1!$A:$A,0))</f>
-        <v>'EWI' : 'ewi_ishares_italy'</v>
-      </c>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C87 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C87,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWI' : 'ewi_ishares_italy',</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16">
       <c r="B88" s="6"/>
       <c r="C88" s="2" t="s">
         <v>86</v>
@@ -10333,11 +10328,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P88" t="str">
-        <f>"'" &amp; C88 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C88,Sheet1!$A:$A,0))</f>
-        <v>'EGPT' : 'egpt_vaneck_egypt'</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C88 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C88,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EGPT' : 'egpt_vaneck_egypt',</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16">
       <c r="B89" s="6"/>
       <c r="C89" s="2" t="s">
         <v>87</v>
@@ -10390,11 +10385,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P89" t="str">
-        <f>"'" &amp; C89 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C89,Sheet1!$A:$A,0))</f>
-        <v>'INDA' : 'inda_ishares_india'</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C89 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C89,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'INDA' : 'inda_ishares_india',</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16">
       <c r="B90" s="6"/>
       <c r="C90" s="2" t="s">
         <v>88</v>
@@ -10447,11 +10442,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P90" t="str">
-        <f>"'" &amp; C90 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C90,Sheet1!$A:$A,0))</f>
-        <v>'AFK' : 'afk_vaneck_africa'</v>
-      </c>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C90 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C90,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'AFK' : 'afk_vaneck_africa',</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16">
       <c r="B91" s="6"/>
       <c r="C91" s="2" t="s">
         <v>89</v>
@@ -10504,11 +10499,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P91" t="str">
-        <f>"'" &amp; C91 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C91,Sheet1!$A:$A,0))</f>
-        <v>'EZA' : 'eza_ishares_south_africa'</v>
-      </c>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C91 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C91,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EZA' : 'eza_ishares_south_africa',</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16">
       <c r="B92" s="6"/>
       <c r="C92" s="2" t="s">
         <v>90</v>
@@ -10561,11 +10556,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P92" t="str">
-        <f>"'" &amp; C92 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C92,Sheet1!$A:$A,0))</f>
-        <v>'RSX' : 'rsx_vaneck_russia'</v>
-      </c>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C92 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C92,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'RSX' : 'rsx_vaneck_russia',</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16">
       <c r="B93" s="6"/>
       <c r="C93" s="2" t="s">
         <v>91</v>
@@ -10618,11 +10613,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P93" t="str">
-        <f>"'" &amp; C93 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C93,Sheet1!$A:$A,0))</f>
-        <v>'EWY' : 'ewy_ishares_skorea'</v>
-      </c>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C93 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C93,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWY' : 'ewy_ishares_skorea',</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16">
       <c r="B94" s="6"/>
       <c r="C94" s="2" t="s">
         <v>92</v>
@@ -10675,11 +10670,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P94" t="str">
-        <f>"'" &amp; C94 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C94,Sheet1!$A:$A,0))</f>
-        <v>'EWJ' : 'ewj_ishares_jp'</v>
-      </c>
-    </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C94 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C94,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWJ' : 'ewj_ishares_jp',</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16">
       <c r="B95" s="6"/>
       <c r="C95" s="2" t="s">
         <v>93</v>
@@ -10732,11 +10727,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P95" t="str">
-        <f>"'" &amp; C95 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C95,Sheet1!$A:$A,0))</f>
-        <v>'MCHI' : 'mchi_ishares_china'</v>
-      </c>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C95 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C95,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'MCHI' : 'mchi_ishares_china',</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16">
       <c r="B96" s="6"/>
       <c r="C96" s="2" t="s">
         <v>94</v>
@@ -10789,11 +10784,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P96" t="str">
-        <f>"'" &amp; C96 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C96,Sheet1!$A:$A,0))</f>
-        <v>'EWS' : 'ews_ishares_singapore'</v>
-      </c>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C96 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C96,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWS' : 'ews_ishares_singapore',</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16">
       <c r="B97" s="6"/>
       <c r="C97" s="2" t="s">
         <v>95</v>
@@ -10846,11 +10841,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P97" t="str">
-        <f>"'" &amp; C97 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C97,Sheet1!$A:$A,0))</f>
-        <v>'EWA' : 'ewa_ishares_australia'</v>
-      </c>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C97 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C97,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWA' : 'ewa_ishares_australia',</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16">
       <c r="B98" s="6"/>
       <c r="C98" s="2" t="s">
         <v>96</v>
@@ -10903,11 +10898,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P98" t="str">
-        <f>"'" &amp; C98 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C98,Sheet1!$A:$A,0))</f>
-        <v>'EWO' : 'ewo_ishares_austria'</v>
-      </c>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C98 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C98,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWO' : 'ewo_ishares_austria',</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16">
       <c r="B99" s="6"/>
       <c r="C99" s="2" t="s">
         <v>97</v>
@@ -10960,11 +10955,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P99" t="str">
-        <f>"'" &amp; C99 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C99,Sheet1!$A:$A,0))</f>
-        <v>'EWK' : 'ewk_ishares_belgium'</v>
-      </c>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C99 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C99,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWK' : 'ewk_ishares_belgium',</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16">
       <c r="B100" s="6"/>
       <c r="C100" s="2" t="s">
         <v>98</v>
@@ -11017,11 +11012,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P100" t="str">
-        <f>"'" &amp; C100 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C100,Sheet1!$A:$A,0))</f>
-        <v>'EWQ' : 'ewq_ishares_fr'</v>
-      </c>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C100 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C100,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWQ' : 'ewq_ishares_fr',</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16">
       <c r="B101" s="6"/>
       <c r="C101" s="2" t="s">
         <v>99</v>
@@ -11074,11 +11069,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P101" t="str">
-        <f>"'" &amp; C101 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C101,Sheet1!$A:$A,0))</f>
-        <v>'EWH' : 'ewh_ishares_hk'</v>
-      </c>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C101 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C101,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWH' : 'ewh_ishares_hk',</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16">
       <c r="B102" s="6"/>
       <c r="C102" s="2" t="s">
         <v>100</v>
@@ -11131,11 +11126,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P102" t="str">
-        <f>"'" &amp; C102 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C102,Sheet1!$A:$A,0))</f>
-        <v>'EWM' : 'ewm_ishares_malaysia'</v>
-      </c>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C102 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C102,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWM' : 'ewm_ishares_malaysia',</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16">
       <c r="B103" s="6"/>
       <c r="C103" s="2" t="s">
         <v>101</v>
@@ -11188,11 +11183,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P103" t="str">
-        <f>"'" &amp; C103 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C103,Sheet1!$A:$A,0))</f>
-        <v>'EWN' : 'ewn_ishares_netherland'</v>
-      </c>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C103 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C103,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWN' : 'ewn_ishares_netherland',</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16">
       <c r="B104" s="6"/>
       <c r="C104" s="2" t="s">
         <v>102</v>
@@ -11245,11 +11240,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P104" t="str">
-        <f>"'" &amp; C104 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C104,Sheet1!$A:$A,0))</f>
-        <v>'EWD' : 'ewd_ishares_sweden'</v>
-      </c>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C104 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C104,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWD' : 'ewd_ishares_sweden',</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16">
       <c r="B105" s="6"/>
       <c r="C105" s="2" t="s">
         <v>103</v>
@@ -11302,11 +11297,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P105" t="str">
-        <f>"'" &amp; C105 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C105,Sheet1!$A:$A,0))</f>
-        <v>'EWL' : 'ewl_ishares_switzerland'</v>
-      </c>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C105 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C105,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWL' : 'ewl_ishares_switzerland',</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16">
       <c r="B106" s="6"/>
       <c r="C106" s="2" t="s">
         <v>104</v>
@@ -11359,11 +11354,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P106" t="str">
-        <f>"'" &amp; C106 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C106,Sheet1!$A:$A,0))</f>
-        <v>'EWT' : 'ewt_ishares_taiwan'</v>
-      </c>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C106 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C106,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EWT' : 'ewt_ishares_taiwan',</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16">
       <c r="B107" s="6"/>
       <c r="C107" s="2" t="s">
         <v>105</v>
@@ -11416,11 +11411,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P107" t="str">
-        <f>"'" &amp; C107 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C107,Sheet1!$A:$A,0))</f>
-        <v>'VNM' : 'vnm_vaneck_vietnam'</v>
-      </c>
-    </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C107 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C107,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'VNM' : 'vnm_vaneck_vietnam',</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16">
       <c r="B108" s="6"/>
       <c r="C108" s="2" t="s">
         <v>106</v>
@@ -11473,11 +11468,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P108" t="str">
-        <f>"'" &amp; C108 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C108,Sheet1!$A:$A,0))</f>
-        <v>'EPOL' : 'epol_ishares_poland'</v>
-      </c>
-    </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C108 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C108,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EPOL' : 'epol_ishares_poland',</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16">
       <c r="B109" s="6"/>
       <c r="C109" s="2" t="s">
         <v>107</v>
@@ -11530,11 +11525,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P109" t="str">
-        <f>"'" &amp; C109 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C109,Sheet1!$A:$A,0))</f>
-        <v>'ENZL' : 'enzl_ishares_newzealand'</v>
-      </c>
-    </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C109 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C109,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'ENZL' : 'enzl_ishares_newzealand',</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16">
       <c r="B110" s="6"/>
       <c r="C110" s="2" t="s">
         <v>108</v>
@@ -11587,11 +11582,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P110" t="str">
-        <f>"'" &amp; C110 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C110,Sheet1!$A:$A,0))</f>
-        <v>'GREK' : 'grek_globalx_greece'</v>
-      </c>
-    </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C110 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C110,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'GREK' : 'grek_globalx_greece',</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16">
       <c r="B111" s="6"/>
       <c r="C111" s="2" t="s">
         <v>109</v>
@@ -11644,11 +11639,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P111" t="str">
-        <f>"'" &amp; C111 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C111,Sheet1!$A:$A,0))</f>
-        <v>'NORW' : 'norw_globalx_norway'</v>
-      </c>
-    </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C111 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C111,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'NORW' : 'norw_globalx_norway',</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16">
       <c r="B112" s="6"/>
       <c r="C112" s="2" t="s">
         <v>110</v>
@@ -11701,11 +11696,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P112" t="str">
-        <f>"'" &amp; C112 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C112,Sheet1!$A:$A,0))</f>
-        <v>'EIDO' : 'eido_ishares_indonesia'</v>
-      </c>
-    </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C112 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C112,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EIDO' : 'eido_ishares_indonesia',</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16">
       <c r="B113" s="6"/>
       <c r="C113" s="2" t="s">
         <v>111</v>
@@ -11758,11 +11753,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P113" t="str">
-        <f>"'" &amp; C113 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C113,Sheet1!$A:$A,0))</f>
-        <v>'EPHE' : 'ephe_ishares_philip'</v>
-      </c>
-    </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C113 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C113,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EPHE' : 'ephe_ishares_philip',</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16">
       <c r="B114" s="6"/>
       <c r="C114" s="2" t="s">
         <v>112</v>
@@ -11815,11 +11810,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P114" t="str">
-        <f>"'" &amp; C114 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C114,Sheet1!$A:$A,0))</f>
-        <v>'THD' : 'thd_ishares_thailand'</v>
-      </c>
-    </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C114 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C114,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'THD' : 'thd_ishares_thailand',</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16">
       <c r="B115" s="6"/>
       <c r="C115" s="2" t="s">
         <v>113</v>
@@ -11872,11 +11867,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P115" t="str">
-        <f>"'" &amp; C115 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C115,Sheet1!$A:$A,0))</f>
-        <v>'TUR' : 'tur_ishares_turkey'</v>
-      </c>
-    </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C115 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C115,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'TUR' : 'tur_ishares_turkey',</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16">
       <c r="B116" s="6"/>
       <c r="C116" s="2" t="s">
         <v>62</v>
@@ -11929,11 +11924,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P116" t="str">
-        <f>"'" &amp; C116 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C116,Sheet1!$A:$A,0))</f>
-        <v>'ECH' : 'ech_ishares_chile'</v>
-      </c>
-    </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C116 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C116,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'ECH' : 'ech_ishares_chile',</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16">
       <c r="B117" s="6"/>
       <c r="C117" s="2" t="s">
         <v>114</v>
@@ -11986,11 +11981,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P117" t="str">
-        <f>"'" &amp; C117 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C117,Sheet1!$A:$A,0))</f>
-        <v>'GXG' : 'gxg_globalx_colombia'</v>
-      </c>
-    </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C117 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C117,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'GXG' : 'gxg_globalx_colombia',</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16">
       <c r="B118" s="6"/>
       <c r="C118" s="2" t="s">
         <v>115</v>
@@ -12043,11 +12038,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P118" t="str">
-        <f>"'" &amp; C118 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C118,Sheet1!$A:$A,0))</f>
-        <v>'KSA' : 'ksa_ishares_saudi'</v>
-      </c>
-    </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C118 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C118,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'KSA' : 'ksa_ishares_saudi',</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16">
       <c r="B119" s="6"/>
       <c r="C119" s="2" t="s">
         <v>116</v>
@@ -12100,11 +12095,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P119" t="str">
-        <f>"'" &amp; C119 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C119,Sheet1!$A:$A,0))</f>
-        <v>'ASHR' : 'ashr_deutsche_china_csi300'</v>
-      </c>
-    </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C119 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C119,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'ASHR' : 'ashr_deutsche_china_csi300',</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16">
       <c r="B120" s="6"/>
       <c r="C120" s="2" t="s">
         <v>117</v>
@@ -12157,11 +12152,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P120" t="str">
-        <f>"'" &amp; C120 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C120,Sheet1!$A:$A,0))</f>
-        <v>'EIRL' : 'eirl_ishares_ireland'</v>
-      </c>
-    </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C120 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C120,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EIRL' : 'eirl_ishares_ireland',</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16">
       <c r="B121" s="6"/>
       <c r="C121" s="2" t="s">
         <v>118</v>
@@ -12214,11 +12209,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P121" t="str">
-        <f>"'" &amp; C121 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C121,Sheet1!$A:$A,0))</f>
-        <v>'EIS' : 'eis_ishares_israel'</v>
-      </c>
-    </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C121 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C121,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EIS' : 'eis_ishares_israel',</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16">
       <c r="B122" s="6"/>
       <c r="C122" s="2" t="s">
         <v>119</v>
@@ -12271,11 +12266,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P122" t="str">
-        <f>"'" &amp; C122 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C122,Sheet1!$A:$A,0))</f>
-        <v>'EPI' : 'epi_wisdomtree_india'</v>
-      </c>
-    </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C122 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C122,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EPI' : 'epi_wisdomtree_india',</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16">
       <c r="B123" s="6"/>
       <c r="C123" s="2" t="s">
         <v>120</v>
@@ -12328,11 +12323,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P123" t="str">
-        <f>"'" &amp; C123 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C123,Sheet1!$A:$A,0))</f>
-        <v>'FXI' : 'fxi_ishares_china_largecap'</v>
-      </c>
-    </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C123 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C123,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'FXI' : 'fxi_ishares_china_largecap',</v>
+      </c>
+    </row>
+    <row r="124" spans="2:16">
       <c r="B124" s="6"/>
       <c r="C124" s="2" t="s">
         <v>121</v>
@@ -12385,11 +12380,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P124" t="str">
-        <f>"'" &amp; C124 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C124,Sheet1!$A:$A,0))</f>
-        <v>'IDX' : 'idx_vaneck_indonesia'</v>
-      </c>
-    </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C124 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C124,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IDX' : 'idx_vaneck_indonesia',</v>
+      </c>
+    </row>
+    <row r="125" spans="2:16">
       <c r="B125" s="6" t="s">
         <v>240</v>
       </c>
@@ -12444,11 +12439,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P125" t="str">
-        <f>"'" &amp; C125 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C125,Sheet1!$A:$A,0))</f>
-        <v>'QUAL' : 'qual_ishares_qual'</v>
-      </c>
-    </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C125 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C125,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'QUAL' : 'qual_ishares_qual',</v>
+      </c>
+    </row>
+    <row r="126" spans="2:16">
       <c r="B126" s="6"/>
       <c r="C126" s="2" t="s">
         <v>123</v>
@@ -12501,11 +12496,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P126" t="str">
-        <f>"'" &amp; C126 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C126,Sheet1!$A:$A,0))</f>
-        <v>'IVE' : 'ive_ishares_value'</v>
-      </c>
-    </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C126 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C126,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IVE' : 'ive_ishares_value',</v>
+      </c>
+    </row>
+    <row r="127" spans="2:16">
       <c r="B127" s="6"/>
       <c r="C127" s="2" t="s">
         <v>124</v>
@@ -12558,11 +12553,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P127" t="str">
-        <f>"'" &amp; C127 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C127,Sheet1!$A:$A,0))</f>
-        <v>'IVW' : 'ivw_ishares_growth'</v>
-      </c>
-    </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C127 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C127,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IVW' : 'ivw_ishares_growth',</v>
+      </c>
+    </row>
+    <row r="128" spans="2:16">
       <c r="B128" s="6"/>
       <c r="C128" s="2" t="s">
         <v>125</v>
@@ -12615,11 +12610,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P128" t="str">
-        <f>"'" &amp; C128 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C128,Sheet1!$A:$A,0))</f>
-        <v>'MTUM' : 'mtum_ishares_mtum'</v>
-      </c>
-    </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C128 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C128,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'MTUM' : 'mtum_ishares_mtum',</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16">
       <c r="B129" s="6"/>
       <c r="C129" s="2" t="s">
         <v>126</v>
@@ -12672,11 +12667,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P129" t="str">
-        <f>"'" &amp; C129 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C129,Sheet1!$A:$A,0))</f>
-        <v>'EEMO' : 'eemo_pshares_mtum_em'</v>
-      </c>
-    </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C129 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C129,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EEMO' : 'eemo_pshares_mtum_em',</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16">
       <c r="B130" s="6"/>
       <c r="C130" s="2" t="s">
         <v>127</v>
@@ -12729,11 +12724,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P130" t="str">
-        <f>"'" &amp; C130 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C130,Sheet1!$A:$A,0))</f>
-        <v>'VIG' : 'vig_vanguard_dvd_apprec'</v>
-      </c>
-    </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C130 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C130,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'VIG' : 'vig_vanguard_dvd_apprec',</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16">
       <c r="B131" s="6"/>
       <c r="C131" s="2" t="s">
         <v>128</v>
@@ -12786,11 +12781,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P131" t="str">
-        <f>"'" &amp; C131 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C131,Sheet1!$A:$A,0))</f>
-        <v>'DVY' : 'dvy_ishares_high_dvd'</v>
-      </c>
-    </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C131 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C131,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'DVY' : 'dvy_ishares_high_dvd',</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16">
       <c r="B132" s="6"/>
       <c r="C132" s="2" t="s">
         <v>129</v>
@@ -12843,11 +12838,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P132" t="str">
-        <f>"'" &amp; C132 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C132,Sheet1!$A:$A,0))</f>
-        <v>'SPHB' : 'sphb_pshares_high_beta'</v>
-      </c>
-    </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C132 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C132,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'SPHB' : 'sphb_pshares_high_beta',</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16">
       <c r="B133" s="6"/>
       <c r="C133" s="2" t="s">
         <v>130</v>
@@ -12900,11 +12895,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P133" t="str">
-        <f>"'" &amp; C133 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C133,Sheet1!$A:$A,0))</f>
-        <v>'USLB' : 'uslb_pshares_low_beta'</v>
-      </c>
-    </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C133 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C133,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'USLB' : 'uslb_pshares_low_beta',</v>
+      </c>
+    </row>
+    <row r="134" spans="2:16">
       <c r="B134" s="6"/>
       <c r="C134" s="2" t="s">
         <v>131</v>
@@ -12957,11 +12952,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P134" t="str">
-        <f>"'" &amp; C134 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C134,Sheet1!$A:$A,0))</f>
-        <v>'SPLV' : 'splv_pshares_low_vol'</v>
-      </c>
-    </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C134 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C134,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'SPLV' : 'splv_pshares_low_vol',</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16">
       <c r="B135" s="6"/>
       <c r="C135" s="2" t="s">
         <v>132</v>
@@ -13014,11 +13009,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P135" t="str">
-        <f>"'" &amp; C135 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C135,Sheet1!$A:$A,0))</f>
-        <v>'COWZ' : 'cowz_pacer_fcf'</v>
-      </c>
-    </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C135 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C135,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'COWZ' : 'cowz_pacer_fcf',</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16">
       <c r="B136" s="6"/>
       <c r="C136" s="2" t="s">
         <v>133</v>
@@ -13071,11 +13066,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P136" t="str">
-        <f>"'" &amp; C136 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C136,Sheet1!$A:$A,0))</f>
-        <v>'DEF' : 'def_pshares_defensive'</v>
-      </c>
-    </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C136 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C136,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'DEF' : 'def_pshares_defensive',</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16">
       <c r="B137" s="6"/>
       <c r="C137" s="2" t="s">
         <v>134</v>
@@ -13128,11 +13123,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P137" t="str">
-        <f>"'" &amp; C137 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C137,Sheet1!$A:$A,0))</f>
-        <v>'EUSA' : 'eusa_ishares_ew'</v>
-      </c>
-    </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C137 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C137,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EUSA' : 'eusa_ishares_ew',</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16">
       <c r="B138" s="6"/>
       <c r="C138" s="2" t="s">
         <v>135</v>
@@ -13185,11 +13180,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P138" t="str">
-        <f>"'" &amp; C138 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C138,Sheet1!$A:$A,0))</f>
-        <v>'CSM' : 'csm_pshares_130_30'</v>
-      </c>
-    </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C138 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C138,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'CSM' : 'csm_pshares_130_30',</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16">
       <c r="B139" s="6"/>
       <c r="C139" s="2" t="s">
         <v>136</v>
@@ -13242,11 +13237,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P139" t="str">
-        <f>"'" &amp; C139 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C139,Sheet1!$A:$A,0))</f>
-        <v>'SHE' : 'she_spdr_gender'</v>
-      </c>
-    </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C139 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C139,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'SHE' : 'she_spdr_gender',</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16">
       <c r="B140" s="6"/>
       <c r="C140" s="2" t="s">
         <v>137</v>
@@ -13299,11 +13294,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P140" t="str">
-        <f>"'" &amp; C140 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C140,Sheet1!$A:$A,0))</f>
-        <v>'QYLD' : 'qyld_horizons_covered_call'</v>
-      </c>
-    </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C140 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C140,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'QYLD' : 'qyld_horizons_covered_call',</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16">
       <c r="B141" s="6"/>
       <c r="C141" s="2" t="s">
         <v>138</v>
@@ -13356,11 +13351,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P141" t="str">
-        <f>"'" &amp; C141 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C141,Sheet1!$A:$A,0))</f>
-        <v>'GVIP' : 'gvip_gs_hedgefund_hold'</v>
-      </c>
-    </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C141 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C141,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'GVIP' : 'gvip_gs_hedgefund_hold',</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16">
       <c r="B142" s="6"/>
       <c r="C142" s="2" t="s">
         <v>139</v>
@@ -13413,11 +13408,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P142" t="str">
-        <f>"'" &amp; C142 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C142,Sheet1!$A:$A,0))</f>
-        <v>'MOAT' : 'moat_vaneck_moat'</v>
-      </c>
-    </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C142 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C142,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'MOAT' : 'moat_vaneck_moat',</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16">
       <c r="B143" s="6"/>
       <c r="C143" s="2" t="s">
         <v>140</v>
@@ -13470,11 +13465,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P143" t="str">
-        <f>"'" &amp; C143 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C143,Sheet1!$A:$A,0))</f>
-        <v>'FTLS' : 'ftls_firstrust_long_short'</v>
-      </c>
-    </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C143 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C143,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'FTLS' : 'ftls_firstrust_long_short',</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16">
       <c r="B144" s="6"/>
       <c r="C144" s="2" t="s">
         <v>141</v>
@@ -13527,11 +13522,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P144" t="str">
-        <f>"'" &amp; C144 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C144,Sheet1!$A:$A,0))</f>
-        <v>'WTMF' : 'wtmf_wisdomtree_mgd_futs'</v>
-      </c>
-    </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C144 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C144,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'WTMF' : 'wtmf_wisdomtree_mgd_futs',</v>
+      </c>
+    </row>
+    <row r="145" spans="2:16">
       <c r="B145" s="6"/>
       <c r="C145" s="2" t="s">
         <v>142</v>
@@ -13584,11 +13579,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P145" t="str">
-        <f>"'" &amp; C145 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C145,Sheet1!$A:$A,0))</f>
-        <v>'MNA' : 'mna_iq_m&amp;a'</v>
-      </c>
-    </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C145 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C145,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'MNA' : 'mna_iq_m&amp;a',</v>
+      </c>
+    </row>
+    <row r="146" spans="2:16">
       <c r="B146" s="6"/>
       <c r="C146" s="2" t="s">
         <v>143</v>
@@ -13641,11 +13636,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P146" t="str">
-        <f>"'" &amp; C146 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C146,Sheet1!$A:$A,0))</f>
-        <v>'SUSA' : 'susa_ishares_esg'</v>
-      </c>
-    </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C146 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C146,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'SUSA' : 'susa_ishares_esg',</v>
+      </c>
+    </row>
+    <row r="147" spans="2:16">
       <c r="B147" s="6"/>
       <c r="C147" s="2" t="s">
         <v>144</v>
@@ -13698,11 +13693,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P147" t="str">
-        <f>"'" &amp; C147 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C147,Sheet1!$A:$A,0))</f>
-        <v>'IPO' : 'ipo_renaissance_ipo'</v>
-      </c>
-    </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C147 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C147,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IPO' : 'ipo_renaissance_ipo',</v>
+      </c>
+    </row>
+    <row r="148" spans="2:16">
       <c r="B148" s="6"/>
       <c r="C148" s="2" t="s">
         <v>145</v>
@@ -13755,11 +13750,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P148" t="str">
-        <f>"'" &amp; C148 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C148,Sheet1!$A:$A,0))</f>
-        <v>'KNOW' : 'know_direxion_insider'</v>
-      </c>
-    </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C148 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C148,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'KNOW' : 'know_direxion_insider',</v>
+      </c>
+    </row>
+    <row r="149" spans="2:16">
       <c r="B149" s="6"/>
       <c r="C149" s="2" t="s">
         <v>146</v>
@@ -13812,11 +13807,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P149" t="str">
-        <f>"'" &amp; C149 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C149,Sheet1!$A:$A,0))</f>
-        <v>'NFO' : 'nfo_pshares_insider'</v>
-      </c>
-    </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C149 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C149,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'NFO' : 'nfo_pshares_insider',</v>
+      </c>
+    </row>
+    <row r="150" spans="2:16">
       <c r="B150" s="6"/>
       <c r="C150" s="2" t="s">
         <v>147</v>
@@ -13869,11 +13864,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P150" t="str">
-        <f>"'" &amp; C150 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C150,Sheet1!$A:$A,0))</f>
-        <v>'IWM' : 'iwm_ishares_smallcap'</v>
-      </c>
-    </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C150 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C150,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IWM' : 'iwm_ishares_smallcap',</v>
+      </c>
+    </row>
+    <row r="151" spans="2:16">
       <c r="B151" s="6"/>
       <c r="C151" s="2" t="s">
         <v>148</v>
@@ -13926,11 +13921,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P151" t="str">
-        <f>"'" &amp; C151 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C151,Sheet1!$A:$A,0))</f>
-        <v>'XRLV' : 'xrlv_pshares_xrate_sen_lowvol'</v>
-      </c>
-    </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C151 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C151,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'XRLV' : 'xrlv_pshares_xrate_sen_lowvol',</v>
+      </c>
+    </row>
+    <row r="152" spans="2:16">
       <c r="B152" s="6" t="s">
         <v>241</v>
       </c>
@@ -13985,11 +13980,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P152" t="str">
-        <f>"'" &amp; C152 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C152,Sheet1!$A:$A,0))</f>
-        <v>'UUP' : 'uup_pshares_usd_up'</v>
-      </c>
-    </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C152 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C152,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'UUP' : 'uup_pshares_usd_up',</v>
+      </c>
+    </row>
+    <row r="153" spans="2:16">
       <c r="B153" s="6"/>
       <c r="C153" s="2" t="s">
         <v>150</v>
@@ -14042,11 +14037,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P153" t="str">
-        <f>"'" &amp; C153 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C153,Sheet1!$A:$A,0))</f>
-        <v>'FXY' : 'fxy_cshares_jpy'</v>
-      </c>
-    </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C153 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C153,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'FXY' : 'fxy_cshares_jpy',</v>
+      </c>
+    </row>
+    <row r="154" spans="2:16">
       <c r="B154" s="6"/>
       <c r="C154" s="2" t="s">
         <v>151</v>
@@ -14099,11 +14094,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P154" t="str">
-        <f>"'" &amp; C154 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C154,Sheet1!$A:$A,0))</f>
-        <v>'FXE' : 'fxe_cshares_eur'</v>
-      </c>
-    </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C154 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C154,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'FXE' : 'fxe_cshares_eur',</v>
+      </c>
+    </row>
+    <row r="155" spans="2:16">
       <c r="B155" s="6"/>
       <c r="C155" s="2" t="s">
         <v>152</v>
@@ -14156,11 +14151,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P155" t="str">
-        <f>"'" &amp; C155 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C155,Sheet1!$A:$A,0))</f>
-        <v>'FXA' : 'fxa_cshares_aud'</v>
-      </c>
-    </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C155 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C155,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'FXA' : 'fxa_cshares_aud',</v>
+      </c>
+    </row>
+    <row r="156" spans="2:16">
       <c r="B156" s="6"/>
       <c r="C156" s="2" t="s">
         <v>153</v>
@@ -14213,11 +14208,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P156" t="str">
-        <f>"'" &amp; C156 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C156,Sheet1!$A:$A,0))</f>
-        <v>'FXC' : 'fxc_cshares_cad'</v>
-      </c>
-    </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C156 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C156,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'FXC' : 'fxc_cshares_cad',</v>
+      </c>
+    </row>
+    <row r="157" spans="2:16">
       <c r="B157" s="6"/>
       <c r="C157" s="2" t="s">
         <v>154</v>
@@ -14270,11 +14265,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P157" t="str">
-        <f>"'" &amp; C157 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C157,Sheet1!$A:$A,0))</f>
-        <v>'FXF' : 'fxf_cshares_chf'</v>
-      </c>
-    </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C157 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C157,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'FXF' : 'fxf_cshares_chf',</v>
+      </c>
+    </row>
+    <row r="158" spans="2:16">
       <c r="B158" s="6"/>
       <c r="C158" s="2" t="s">
         <v>155</v>
@@ -14327,11 +14322,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P158" t="str">
-        <f>"'" &amp; C158 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C158,Sheet1!$A:$A,0))</f>
-        <v>'FXB' : 'fxb_cshares_gbp'</v>
-      </c>
-    </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C158 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C158,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'FXB' : 'fxb_cshares_gbp',</v>
+      </c>
+    </row>
+    <row r="159" spans="2:16">
       <c r="B159" s="6"/>
       <c r="C159" s="2" t="s">
         <v>156</v>
@@ -14384,11 +14379,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P159" t="str">
-        <f>"'" &amp; C159 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C159,Sheet1!$A:$A,0))</f>
-        <v>'UDN' : 'udn_pshares_usd_down'</v>
-      </c>
-    </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C159 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C159,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'UDN' : 'udn_pshares_usd_down',</v>
+      </c>
+    </row>
+    <row r="160" spans="2:16">
       <c r="B160" s="6" t="s">
         <v>242</v>
       </c>
@@ -14443,11 +14438,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P160" t="str">
-        <f>"'" &amp; C160 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C160,Sheet1!$A:$A,0))</f>
-        <v>'DBC' : 'dbc_pshares_comdty'</v>
-      </c>
-    </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C160 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C160,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'DBC' : 'dbc_pshares_comdty',</v>
+      </c>
+    </row>
+    <row r="161" spans="2:16">
       <c r="B161" s="6"/>
       <c r="C161" s="2" t="s">
         <v>158</v>
@@ -14500,11 +14495,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P161" t="str">
-        <f>"'" &amp; C161 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C161,Sheet1!$A:$A,0))</f>
-        <v>'USO' : 'uso_uns_wti'</v>
-      </c>
-    </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C161 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C161,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'USO' : 'uso_uns_wti',</v>
+      </c>
+    </row>
+    <row r="162" spans="2:16">
       <c r="B162" s="6"/>
       <c r="C162" s="2" t="s">
         <v>159</v>
@@ -14557,11 +14552,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P162" t="str">
-        <f>"'" &amp; C162 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C162,Sheet1!$A:$A,0))</f>
-        <v>'GLD' : 'gld_spdr_gold'</v>
-      </c>
-    </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C162 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C162,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'GLD' : 'gld_spdr_gold',</v>
+      </c>
+    </row>
+    <row r="163" spans="2:16">
       <c r="B163" s="6"/>
       <c r="C163" s="2" t="s">
         <v>160</v>
@@ -14614,11 +14609,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P163" t="str">
-        <f>"'" &amp; C163 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C163,Sheet1!$A:$A,0))</f>
-        <v>'SLV' : 'slv_ishares_silver'</v>
-      </c>
-    </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C163 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C163,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'SLV' : 'slv_ishares_silver',</v>
+      </c>
+    </row>
+    <row r="164" spans="2:16">
       <c r="B164" s="6"/>
       <c r="C164" s="2" t="s">
         <v>161</v>
@@ -14671,11 +14666,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P164" t="str">
-        <f>"'" &amp; C164 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C164,Sheet1!$A:$A,0))</f>
-        <v>'DBA' : 'dba_pshares_agriculture'</v>
-      </c>
-    </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C164 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C164,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'DBA' : 'dba_pshares_agriculture',</v>
+      </c>
+    </row>
+    <row r="165" spans="2:16">
       <c r="B165" s="6"/>
       <c r="C165" s="2" t="s">
         <v>162</v>
@@ -14728,11 +14723,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P165" t="str">
-        <f>"'" &amp; C165 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C165,Sheet1!$A:$A,0))</f>
-        <v>'UNG' : 'ung_uns_ngas'</v>
-      </c>
-    </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C165 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C165,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'UNG' : 'ung_uns_ngas',</v>
+      </c>
+    </row>
+    <row r="166" spans="2:16">
       <c r="B166" s="6"/>
       <c r="C166" s="2" t="s">
         <v>163</v>
@@ -14785,11 +14780,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P166" t="str">
-        <f>"'" &amp; C166 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C166,Sheet1!$A:$A,0))</f>
-        <v>'DBE' : 'dbe_pshares_energy'</v>
-      </c>
-    </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C166 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C166,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'DBE' : 'dbe_pshares_energy',</v>
+      </c>
+    </row>
+    <row r="167" spans="2:16">
       <c r="B167" s="6"/>
       <c r="C167" s="2" t="s">
         <v>164</v>
@@ -14842,11 +14837,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P167" t="str">
-        <f>"'" &amp; C167 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C167,Sheet1!$A:$A,0))</f>
-        <v>'DBB' : 'dbb_pshares_bmetal'</v>
-      </c>
-    </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C167 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C167,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'DBB' : 'dbb_pshares_bmetal',</v>
+      </c>
+    </row>
+    <row r="168" spans="2:16">
       <c r="B168" s="6"/>
       <c r="C168" s="2" t="s">
         <v>165</v>
@@ -14899,11 +14894,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P168" t="str">
-        <f>"'" &amp; C168 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C168,Sheet1!$A:$A,0))</f>
-        <v>'GLTR' : 'gltr_etfs_pmetal'</v>
-      </c>
-    </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C168 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C168,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'GLTR' : 'gltr_etfs_pmetal',</v>
+      </c>
+    </row>
+    <row r="169" spans="2:16">
       <c r="B169" s="6" t="s">
         <v>243</v>
       </c>
@@ -14958,11 +14953,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P169" t="str">
-        <f>"'" &amp; C169 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C169,Sheet1!$A:$A,0))</f>
-        <v>'AGG' : 'agg_ishares_us_bd_agg'</v>
-      </c>
-    </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C169 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C169,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'AGG' : 'agg_ishares_us_bd_agg',</v>
+      </c>
+    </row>
+    <row r="170" spans="2:16">
       <c r="B170" s="6"/>
       <c r="C170" s="2" t="s">
         <v>194</v>
@@ -15015,11 +15010,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P170" t="str">
-        <f>"'" &amp; C170 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C170,Sheet1!$A:$A,0))</f>
-        <v>'BIL' : 'bil_spdr_us_tbil'</v>
-      </c>
-    </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C170 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C170,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'BIL' : 'bil_spdr_us_tbil',</v>
+      </c>
+    </row>
+    <row r="171" spans="2:16">
       <c r="B171" s="6"/>
       <c r="C171" s="2" t="s">
         <v>195</v>
@@ -15072,11 +15067,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P171" t="str">
-        <f>"'" &amp; C171 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C171,Sheet1!$A:$A,0))</f>
-        <v>'SHY' : 'shy_ishares_us_bd_short'</v>
-      </c>
-    </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C171 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C171,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'SHY' : 'shy_ishares_us_bd_short',</v>
+      </c>
+    </row>
+    <row r="172" spans="2:16">
       <c r="B172" s="6"/>
       <c r="C172" s="2" t="s">
         <v>196</v>
@@ -15129,11 +15124,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P172" t="str">
-        <f>"'" &amp; C172 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C172,Sheet1!$A:$A,0))</f>
-        <v>'IEF' : 'ief_ishares_us_bd_interm'</v>
-      </c>
-    </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C172 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C172,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IEF' : 'ief_ishares_us_bd_interm',</v>
+      </c>
+    </row>
+    <row r="173" spans="2:16">
       <c r="B173" s="6"/>
       <c r="C173" s="2" t="s">
         <v>197</v>
@@ -15186,11 +15181,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P173" t="str">
-        <f>"'" &amp; C173 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C173,Sheet1!$A:$A,0))</f>
-        <v>'TLT' : 'tlt_ishares_us_bd_long'</v>
-      </c>
-    </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C173 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C173,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'TLT' : 'tlt_ishares_us_bd_long',</v>
+      </c>
+    </row>
+    <row r="174" spans="2:16">
       <c r="B174" s="6"/>
       <c r="C174" s="2" t="s">
         <v>167</v>
@@ -15243,11 +15238,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P174" t="str">
-        <f>"'" &amp; C174 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C174,Sheet1!$A:$A,0))</f>
-        <v>'TIP' : 'tip_ishares_us_tip'</v>
-      </c>
-    </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C174 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C174,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'TIP' : 'tip_ishares_us_tip',</v>
+      </c>
+    </row>
+    <row r="175" spans="2:16">
       <c r="B175" s="6"/>
       <c r="C175" s="2" t="s">
         <v>198</v>
@@ -15300,11 +15295,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P175" t="str">
-        <f>"'" &amp; C175 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C175,Sheet1!$A:$A,0))</f>
-        <v>'LQD' : 'lqd_ishares_us_ig'</v>
-      </c>
-    </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C175 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C175,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'LQD' : 'lqd_ishares_us_ig',</v>
+      </c>
+    </row>
+    <row r="176" spans="2:16">
       <c r="B176" s="6"/>
       <c r="C176" s="2" t="s">
         <v>199</v>
@@ -15357,11 +15352,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P176" t="str">
-        <f>"'" &amp; C176 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C176,Sheet1!$A:$A,0))</f>
-        <v>'HYG' : 'hyg_ishares_us_hy'</v>
-      </c>
-    </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C176 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C176,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'HYG' : 'hyg_ishares_us_hy',</v>
+      </c>
+    </row>
+    <row r="177" spans="2:16">
       <c r="B177" s="6"/>
       <c r="C177" s="2" t="s">
         <v>200</v>
@@ -15414,11 +15409,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P177" t="str">
-        <f>"'" &amp; C177 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C177,Sheet1!$A:$A,0))</f>
-        <v>'MBB' : 'mbb_ishares_us_mbs'</v>
-      </c>
-    </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C177 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C177,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'MBB' : 'mbb_ishares_us_mbs',</v>
+      </c>
+    </row>
+    <row r="178" spans="2:16">
       <c r="B178" s="6"/>
       <c r="C178" s="2" t="s">
         <v>201</v>
@@ -15471,11 +15466,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P178" t="str">
-        <f>"'" &amp; C178 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C178,Sheet1!$A:$A,0))</f>
-        <v>'MUB' : 'mub_ishares_us_muni'</v>
-      </c>
-    </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C178 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C178,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'MUB' : 'mub_ishares_us_muni',</v>
+      </c>
+    </row>
+    <row r="179" spans="2:16">
       <c r="B179" s="6"/>
       <c r="C179" s="2" t="s">
         <v>202</v>
@@ -15528,11 +15523,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P179" t="str">
-        <f>"'" &amp; C179 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C179,Sheet1!$A:$A,0))</f>
-        <v>'BKLN' : 'bkln_pshares_us_bankloan'</v>
-      </c>
-    </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C179 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C179,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'BKLN' : 'bkln_pshares_us_bankloan',</v>
+      </c>
+    </row>
+    <row r="180" spans="2:16">
       <c r="B180" s="6"/>
       <c r="C180" s="2" t="s">
         <v>203</v>
@@ -15585,11 +15580,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P180" t="str">
-        <f>"'" &amp; C180 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C180,Sheet1!$A:$A,0))</f>
-        <v>'CWB' : 'cwb_spdr_us_cb'</v>
-      </c>
-    </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C180 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C180,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'CWB' : 'cwb_spdr_us_cb',</v>
+      </c>
+    </row>
+    <row r="181" spans="2:16">
       <c r="B181" s="6"/>
       <c r="C181" s="2" t="s">
         <v>204</v>
@@ -15642,11 +15637,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P181" t="str">
-        <f>"'" &amp; C181 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C181,Sheet1!$A:$A,0))</f>
-        <v>'HYD' : 'hyd_vaneck_us_hy_muni'</v>
-      </c>
-    </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C181 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C181,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'HYD' : 'hyd_vaneck_us_hy_muni',</v>
+      </c>
+    </row>
+    <row r="182" spans="2:16">
       <c r="B182" s="6"/>
       <c r="C182" s="2" t="s">
         <v>205</v>
@@ -15699,11 +15694,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P182" t="str">
-        <f>"'" &amp; C182 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C182,Sheet1!$A:$A,0))</f>
-        <v>'PFF' : 'pff_ishares_us_pref'</v>
-      </c>
-    </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C182 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C182,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'PFF' : 'pff_ishares_us_pref',</v>
+      </c>
+    </row>
+    <row r="183" spans="2:16">
       <c r="B183" s="6"/>
       <c r="C183" s="2" t="s">
         <v>168</v>
@@ -15756,11 +15751,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P183" t="str">
-        <f>"'" &amp; C183 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C183,Sheet1!$A:$A,0))</f>
-        <v>'TMF' : 'tmf_direxion_us_bd_long_3x'</v>
-      </c>
-    </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C183 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C183,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'TMF' : 'tmf_direxion_us_bd_long_3x',</v>
+      </c>
+    </row>
+    <row r="184" spans="2:16">
       <c r="B184" s="6" t="s">
         <v>244</v>
       </c>
@@ -15815,11 +15810,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P184" t="str">
-        <f>"'" &amp; C184 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C184,Sheet1!$A:$A,0))</f>
-        <v>'BWX' : 'bwx_spdr_global_sov_loc'</v>
-      </c>
-    </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C184 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C184,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'BWX' : 'bwx_spdr_global_sov_loc',</v>
+      </c>
+    </row>
+    <row r="185" spans="2:16">
       <c r="B185" s="6"/>
       <c r="C185" s="2" t="s">
         <v>170</v>
@@ -15872,11 +15867,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P185" t="str">
-        <f>"'" &amp; C185 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C185,Sheet1!$A:$A,0))</f>
-        <v>'WIP' : 'wip_spdr_global_tip_loc'</v>
-      </c>
-    </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C185 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C185,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'WIP' : 'wip_spdr_global_tip_loc',</v>
+      </c>
+    </row>
+    <row r="186" spans="2:16">
       <c r="B186" s="6"/>
       <c r="C186" s="2" t="s">
         <v>171</v>
@@ -15929,11 +15924,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P186" t="str">
-        <f>"'" &amp; C186 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C186,Sheet1!$A:$A,0))</f>
-        <v>'BNDX' : 'bndx_vangard_global_sov_loc_h'</v>
-      </c>
-    </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C186 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C186,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'BNDX' : 'bndx_vangard_global_sov_loc_h',</v>
+      </c>
+    </row>
+    <row r="187" spans="2:16">
       <c r="B187" s="6"/>
       <c r="C187" s="2" t="s">
         <v>172</v>
@@ -15986,11 +15981,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P187" t="str">
-        <f>"'" &amp; C187 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C187,Sheet1!$A:$A,0))</f>
-        <v>'IGOV' : 'igov_ishares_developed_sov_loc'</v>
-      </c>
-    </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C187 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C187,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IGOV' : 'igov_ishares_developed_sov_loc',</v>
+      </c>
+    </row>
+    <row r="188" spans="2:16">
       <c r="B188" s="6"/>
       <c r="C188" s="2" t="s">
         <v>173</v>
@@ -16043,11 +16038,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P188" t="str">
-        <f>"'" &amp; C188 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C188,Sheet1!$A:$A,0))</f>
-        <v>'FLOT' : 'flot_ishares_developed_float_usd'</v>
-      </c>
-    </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C188 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C188,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'FLOT' : 'flot_ishares_developed_float_usd',</v>
+      </c>
+    </row>
+    <row r="189" spans="2:16">
       <c r="B189" s="6"/>
       <c r="C189" s="2" t="s">
         <v>174</v>
@@ -16100,11 +16095,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P189" t="str">
-        <f>"'" &amp; C189 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C189,Sheet1!$A:$A,0))</f>
-        <v>'PICB' : 'picb_pshares_developed_ig_loc'</v>
-      </c>
-    </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C189 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C189,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'PICB' : 'picb_pshares_developed_ig_loc',</v>
+      </c>
+    </row>
+    <row r="190" spans="2:16">
       <c r="B190" s="6"/>
       <c r="C190" s="2" t="s">
         <v>175</v>
@@ -16157,11 +16152,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P190" t="str">
-        <f>"'" &amp; C190 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C190,Sheet1!$A:$A,0))</f>
-        <v>'HYXU' : 'hyxu_ishares_developed_hy_loc'</v>
-      </c>
-    </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C190 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C190,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'HYXU' : 'hyxu_ishares_developed_hy_loc',</v>
+      </c>
+    </row>
+    <row r="191" spans="2:16">
       <c r="B191" s="6"/>
       <c r="C191" s="2" t="s">
         <v>176</v>
@@ -16214,11 +16209,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P191" t="str">
-        <f>"'" &amp; C191 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C191,Sheet1!$A:$A,0))</f>
-        <v>'EMB' : 'emb_ishares_em_sov_usd'</v>
-      </c>
-    </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C191 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C191,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EMB' : 'emb_ishares_em_sov_usd',</v>
+      </c>
+    </row>
+    <row r="192" spans="2:16">
       <c r="B192" s="6"/>
       <c r="C192" s="2" t="s">
         <v>177</v>
@@ -16271,11 +16266,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P192" t="str">
-        <f>"'" &amp; C192 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C192,Sheet1!$A:$A,0))</f>
-        <v>'EMLC' : 'emlc_vaneck_em_sov_loc'</v>
-      </c>
-    </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C192 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C192,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EMLC' : 'emlc_vaneck_em_sov_loc',</v>
+      </c>
+    </row>
+    <row r="193" spans="2:16">
       <c r="B193" s="6"/>
       <c r="C193" s="2" t="s">
         <v>178</v>
@@ -16328,11 +16323,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P193" t="str">
-        <f>"'" &amp; C193 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C193,Sheet1!$A:$A,0))</f>
-        <v>'EMHY' : 'emhy_ishares_em_hy_usd'</v>
-      </c>
-    </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C193 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C193,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EMHY' : 'emhy_ishares_em_hy_usd',</v>
+      </c>
+    </row>
+    <row r="194" spans="2:16">
       <c r="B194" s="6"/>
       <c r="C194" s="2" t="s">
         <v>179</v>
@@ -16385,11 +16380,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P194" t="str">
-        <f>"'" &amp; C194 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C194,Sheet1!$A:$A,0))</f>
-        <v>'DSUM' : 'dsum_pshares_china_credit_loc'</v>
-      </c>
-    </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C194 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C194,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'DSUM' : 'dsum_pshares_china_credit_loc',</v>
+      </c>
+    </row>
+    <row r="195" spans="2:16">
       <c r="B195" s="6" t="s">
         <v>245</v>
       </c>
@@ -16444,11 +16439,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P195" t="str">
-        <f>"'" &amp; C195 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C195,Sheet1!$A:$A,0))</f>
-        <v>'ACWI' : 'acwi_ishares_acwi'</v>
-      </c>
-    </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C195 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C195,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'ACWI' : 'acwi_ishares_acwi',</v>
+      </c>
+    </row>
+    <row r="196" spans="2:16">
       <c r="B196" s="6"/>
       <c r="C196" s="2" t="s">
         <v>206</v>
@@ -16501,11 +16496,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P196" t="str">
-        <f>"'" &amp; C196 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C196,Sheet1!$A:$A,0))</f>
-        <v>'VTI' : 'vti_vanguard_us_total'</v>
-      </c>
-    </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C196 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C196,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'VTI' : 'vti_vanguard_us_total',</v>
+      </c>
+    </row>
+    <row r="197" spans="2:16">
       <c r="B197" s="6"/>
       <c r="C197" s="2" t="s">
         <v>207</v>
@@ -16558,11 +16553,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P197" t="str">
-        <f>"'" &amp; C197 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C197,Sheet1!$A:$A,0))</f>
-        <v>'GWX' : 'gwx_spdr_intl_smallcap'</v>
-      </c>
-    </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C197 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C197,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'GWX' : 'gwx_spdr_intl_smallcap',</v>
+      </c>
+    </row>
+    <row r="198" spans="2:16">
       <c r="B198" s="6"/>
       <c r="C198" s="2" t="s">
         <v>208</v>
@@ -16615,11 +16610,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P198" t="str">
-        <f>"'" &amp; C198 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C198,Sheet1!$A:$A,0))</f>
-        <v>'VEU' : 'veu_vanguard_global'</v>
-      </c>
-    </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C198 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C198,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'VEU' : 'veu_vanguard_global',</v>
+      </c>
+    </row>
+    <row r="199" spans="2:16">
       <c r="B199" s="6"/>
       <c r="C199" s="2" t="s">
         <v>209</v>
@@ -16672,11 +16667,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P199" t="str">
-        <f>"'" &amp; C199 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C199,Sheet1!$A:$A,0))</f>
-        <v>'IEV' : 'iev_ishares_europe'</v>
-      </c>
-    </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C199 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C199,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'IEV' : 'iev_ishares_europe',</v>
+      </c>
+    </row>
+    <row r="200" spans="2:16">
       <c r="B200" s="6"/>
       <c r="C200" s="2" t="s">
         <v>210</v>
@@ -16729,11 +16724,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P200" t="str">
-        <f>"'" &amp; C200 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C200,Sheet1!$A:$A,0))</f>
-        <v>'EFA' : 'efa_ishares_developed'</v>
-      </c>
-    </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C200 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C200,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EFA' : 'efa_ishares_developed',</v>
+      </c>
+    </row>
+    <row r="201" spans="2:16">
       <c r="B201" s="6"/>
       <c r="C201" s="2" t="s">
         <v>211</v>
@@ -16786,11 +16781,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P201" t="str">
-        <f>"'" &amp; C201 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C201,Sheet1!$A:$A,0))</f>
-        <v>'EEM' : 'eem_ishares_em'</v>
-      </c>
-    </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C201 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C201,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'EEM' : 'eem_ishares_em',</v>
+      </c>
+    </row>
+    <row r="202" spans="2:16">
       <c r="B202" s="6"/>
       <c r="C202" s="2" t="s">
         <v>212</v>
@@ -16843,11 +16838,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P202" t="str">
-        <f>"'" &amp; C202 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C202,Sheet1!$A:$A,0))</f>
-        <v>'AAXJ' : 'aaxj_ishares_asia_xjp'</v>
-      </c>
-    </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C202 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C202,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'AAXJ' : 'aaxj_ishares_asia_xjp',</v>
+      </c>
+    </row>
+    <row r="203" spans="2:16">
       <c r="B203" s="6"/>
       <c r="C203" s="2" t="s">
         <v>213</v>
@@ -16900,11 +16895,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P203" t="str">
-        <f>"'" &amp; C203 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C203,Sheet1!$A:$A,0))</f>
-        <v>'BKF' : 'bkf_ishares_bric'</v>
-      </c>
-    </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C203 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C203,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'BKF' : 'bkf_ishares_bric',</v>
+      </c>
+    </row>
+    <row r="204" spans="2:16">
       <c r="B204" s="6"/>
       <c r="C204" s="2" t="s">
         <v>214</v>
@@ -16957,11 +16952,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P204" t="str">
-        <f>"'" &amp; C204 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C204,Sheet1!$A:$A,0))</f>
-        <v>'FM' : 'fm_ishares_frontier'</v>
-      </c>
-    </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C204 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C204,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'FM' : 'fm_ishares_frontier',</v>
+      </c>
+    </row>
+    <row r="205" spans="2:16">
       <c r="B205" s="6"/>
       <c r="C205" s="2" t="s">
         <v>215</v>
@@ -17014,11 +17009,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P205" t="str">
-        <f>"'" &amp; C205 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C205,Sheet1!$A:$A,0))</f>
-        <v>'ILF' : 'ilf_ishares_latam'</v>
-      </c>
-    </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C205 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C205,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'ILF' : 'ilf_ishares_latam',</v>
+      </c>
+    </row>
+    <row r="206" spans="2:16">
       <c r="B206" s="6"/>
       <c r="C206" s="2" t="s">
         <v>216</v>
@@ -17071,11 +17066,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P206" t="str">
-        <f>"'" &amp; C206 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C206,Sheet1!$A:$A,0))</f>
-        <v>'FRN' : 'frn_invesco_frontier'</v>
-      </c>
-    </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C206 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C206,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'FRN' : 'frn_invesco_frontier',</v>
+      </c>
+    </row>
+    <row r="207" spans="2:16">
       <c r="B207" s="6"/>
       <c r="C207" s="2" t="s">
         <v>217</v>
@@ -17128,11 +17123,11 @@
         <v>#NAME?</v>
       </c>
       <c r="P207" t="str">
-        <f>"'" &amp; C207 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C207,Sheet1!$A:$A,0))</f>
-        <v>'GULF' : 'gulf_wisdomtree_middle_east'</v>
-      </c>
-    </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"'" &amp; C207 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C207,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'GULF' : 'gulf_wisdomtree_middle_east',</v>
+      </c>
+    </row>
+    <row r="208" spans="2:16">
       <c r="B208" s="1" t="s">
         <v>246</v>
       </c>
@@ -17187,12 +17182,18 @@
         <v>#NAME?</v>
       </c>
       <c r="P208" t="str">
-        <f>"'" &amp; C208 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C208,Sheet1!$A:$A,0))</f>
-        <v>'AOM' : 'aom_ishares_global_alloc'</v>
+        <f>"'" &amp; C208 &amp; "'" &amp; " : " &amp; INDEX(Sheet1!$B:$B,MATCH(C208,Sheet1!$A:$A,0)) &amp; ","</f>
+        <v>'AOM' : 'aom_ishares_global_alloc',</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B37"/>
     <mergeCell ref="B195:B207"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="B51:B54"/>
@@ -17205,12 +17206,6 @@
     <mergeCell ref="B160:B168"/>
     <mergeCell ref="B169:B183"/>
     <mergeCell ref="B184:B194"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17219,25 +17214,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="C1" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="str">
         <f>TRIM(SUBSTITUTE(UPPER(LEFT(C2, FIND("_", C2)-1)), "'", ""))</f>
         <v>XLB</v>
@@ -17250,7 +17245,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">TRIM(SUBSTITUTE(UPPER(LEFT(C3, FIND("_", C3)-1)), "'", ""))</f>
         <v>XLY</v>
@@ -17263,7 +17258,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>XLP</v>
@@ -17276,7 +17271,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>XLE</v>
@@ -17289,7 +17284,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>XLF</v>
@@ -17302,7 +17297,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>XLV</v>
@@ -17315,7 +17310,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>XLI</v>
@@ -17328,7 +17323,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>IYR</v>
@@ -17341,7 +17336,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>XLK</v>
@@ -17354,7 +17349,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>IYZ</v>
@@ -17367,7 +17362,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>XLU</v>
@@ -17380,7 +17375,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17390,7 +17385,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17403,7 +17398,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>RXI</v>
@@ -17416,7 +17411,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>KXI</v>
@@ -17429,7 +17424,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>IXC</v>
@@ -17442,7 +17437,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>IXG</v>
@@ -17455,7 +17450,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>IXJ</v>
@@ -17468,7 +17463,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>EXI</v>
@@ -17481,7 +17476,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>MXI</v>
@@ -17494,7 +17489,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>IXN</v>
@@ -17507,7 +17502,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>IXP</v>
@@ -17520,7 +17515,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>JXI</v>
@@ -17533,7 +17528,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>RWX</v>
@@ -17546,7 +17541,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17559,7 +17554,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17572,7 +17567,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>CARZ</v>
@@ -17585,7 +17580,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>IYC</v>
@@ -17598,7 +17593,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>BJK</v>
@@ -17611,7 +17606,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>PBS</v>
@@ -17624,7 +17619,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>IBUY</v>
@@ -17637,7 +17632,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17650,7 +17645,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17663,7 +17658,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>IYK</v>
@@ -17676,7 +17671,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>PBJ</v>
@@ -17689,7 +17684,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17702,7 +17697,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17715,7 +17710,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>AMLP</v>
@@ -17728,7 +17723,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>FCG</v>
@@ -17741,7 +17736,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>XOP</v>
@@ -17754,7 +17749,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>OIH</v>
@@ -17767,7 +17762,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>TAN</v>
@@ -17780,7 +17775,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>FAN</v>
@@ -17793,7 +17788,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17806,7 +17801,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17819,7 +17814,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>KBE</v>
@@ -17832,7 +17827,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>IAI</v>
@@ -17845,7 +17840,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>BIZD</v>
@@ -17858,7 +17853,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>KCE</v>
@@ -17871,7 +17866,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>QABA</v>
@@ -17884,7 +17879,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>IYG</v>
@@ -17897,7 +17892,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>KIE</v>
@@ -17910,7 +17905,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>PSP</v>
@@ -17923,7 +17918,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>KRE</v>
@@ -17936,7 +17931,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17949,7 +17944,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -17962,7 +17957,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>IBB</v>
@@ -17975,7 +17970,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>IHF</v>
@@ -17988,7 +17983,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>IHI</v>
@@ -18001,7 +17996,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>PJP</v>
@@ -18014,7 +18009,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -18027,7 +18022,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -18040,7 +18035,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>ITA</v>
@@ -18053,7 +18048,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>JETS</v>
@@ -18066,7 +18061,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>IYT</v>
@@ -18079,7 +18074,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A130" si="2">TRIM(SUBSTITUTE(UPPER(LEFT(C67, FIND("_", C67)-1)), "'", ""))</f>
         <v>CGW</v>
@@ -18092,7 +18087,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -18105,7 +18100,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -18118,7 +18113,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>MOO</v>
@@ -18131,7 +18126,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>GDX</v>
@@ -18144,7 +18139,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>SIL</v>
@@ -18157,7 +18152,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>ITB</v>
@@ -18170,7 +18165,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>LIT</v>
@@ -18183,7 +18178,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>PICK</v>
@@ -18196,7 +18191,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>GUNR</v>
@@ -18209,7 +18204,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>SLX</v>
@@ -18222,7 +18217,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>WOOD</v>
@@ -18235,7 +18230,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>URA</v>
@@ -18248,7 +18243,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -18261,7 +18256,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -18274,7 +18269,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>SKYY</v>
@@ -18287,7 +18282,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>FDN</v>
@@ -18300,7 +18295,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>CIBR</v>
@@ -18313,7 +18308,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>PXQ</v>
@@ -18326,7 +18321,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>SOXX</v>
@@ -18339,7 +18334,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>SOCL</v>
@@ -18352,7 +18347,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>IGV</v>
@@ -18365,7 +18360,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -18378,7 +18373,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -18391,7 +18386,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -18404,7 +18399,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -18417,7 +18412,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>IGF</v>
@@ -18430,7 +18425,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -18443,7 +18438,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -18456,7 +18451,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" t="str">
         <f t="shared" si="2"/>
         <v>VNQ</v>
@@ -18469,7 +18464,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" t="str">
         <f t="shared" si="2"/>
         <v>REM</v>
@@ -18482,7 +18477,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -18492,7 +18487,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -18505,7 +18500,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -18518,7 +18513,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" t="str">
         <f t="shared" si="2"/>
         <v>SPY</v>
@@ -18531,7 +18526,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" t="str">
         <f t="shared" si="2"/>
         <v>SSO</v>
@@ -18544,7 +18539,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" t="str">
         <f t="shared" si="2"/>
         <v>QQQ</v>
@@ -18557,7 +18552,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" t="str">
         <f t="shared" si="2"/>
         <v>QLD</v>
@@ -18570,7 +18565,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" t="str">
         <f t="shared" si="2"/>
         <v>EWC</v>
@@ -18583,7 +18578,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" t="str">
         <f t="shared" si="2"/>
         <v>EWW</v>
@@ -18596,7 +18591,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" t="str">
         <f t="shared" si="2"/>
         <v>EPU</v>
@@ -18609,7 +18604,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" t="str">
         <f t="shared" si="2"/>
         <v>EWZ</v>
@@ -18622,7 +18617,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" t="str">
         <f t="shared" si="2"/>
         <v>ARGT</v>
@@ -18635,7 +18630,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" t="str">
         <f t="shared" si="2"/>
         <v>EWU</v>
@@ -18648,7 +18643,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" t="str">
         <f t="shared" si="2"/>
         <v>EWP</v>
@@ -18661,7 +18656,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" t="str">
         <f t="shared" si="2"/>
         <v>EWG</v>
@@ -18674,7 +18669,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113" t="str">
         <f t="shared" si="2"/>
         <v>EWI</v>
@@ -18687,7 +18682,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" t="str">
         <f t="shared" si="2"/>
         <v>EGPT</v>
@@ -18700,7 +18695,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" t="str">
         <f t="shared" si="2"/>
         <v>INDA</v>
@@ -18713,7 +18708,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" t="str">
         <f t="shared" si="2"/>
         <v>AFK</v>
@@ -18726,7 +18721,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" t="str">
         <f t="shared" si="2"/>
         <v>EZA</v>
@@ -18739,7 +18734,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3">
       <c r="A118" t="str">
         <f t="shared" si="2"/>
         <v>RSX</v>
@@ -18752,7 +18747,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" t="str">
         <f t="shared" si="2"/>
         <v>EWY</v>
@@ -18765,7 +18760,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" t="str">
         <f t="shared" si="2"/>
         <v>EWJ</v>
@@ -18778,7 +18773,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" t="str">
         <f t="shared" si="2"/>
         <v>MCHI</v>
@@ -18791,7 +18786,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" t="str">
         <f t="shared" si="2"/>
         <v>EWS</v>
@@ -18804,7 +18799,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123" t="str">
         <f t="shared" si="2"/>
         <v>EWA</v>
@@ -18817,7 +18812,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="A124" t="str">
         <f t="shared" si="2"/>
         <v>EWO</v>
@@ -18830,7 +18825,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3">
       <c r="A125" t="str">
         <f t="shared" si="2"/>
         <v>EWK</v>
@@ -18843,7 +18838,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" t="str">
         <f t="shared" si="2"/>
         <v>EWQ</v>
@@ -18856,7 +18851,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" t="str">
         <f t="shared" si="2"/>
         <v>EWH</v>
@@ -18869,7 +18864,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" t="str">
         <f t="shared" si="2"/>
         <v>EWM</v>
@@ -18882,7 +18877,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" t="str">
         <f t="shared" si="2"/>
         <v>EWN</v>
@@ -18895,7 +18890,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" t="str">
         <f t="shared" si="2"/>
         <v>EWD</v>
@@ -18908,7 +18903,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" t="str">
         <f t="shared" ref="A131:A194" si="4">TRIM(SUBSTITUTE(UPPER(LEFT(C131, FIND("_", C131)-1)), "'", ""))</f>
         <v>EWL</v>
@@ -18921,7 +18916,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" t="str">
         <f t="shared" si="4"/>
         <v>EWT</v>
@@ -18934,7 +18929,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" t="str">
         <f t="shared" si="4"/>
         <v>VNM</v>
@@ -18947,7 +18942,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" t="str">
         <f t="shared" si="4"/>
         <v>EPOL</v>
@@ -18960,7 +18955,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" t="str">
         <f t="shared" si="4"/>
         <v>ENZL</v>
@@ -18973,7 +18968,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" t="str">
         <f t="shared" si="4"/>
         <v>GREK</v>
@@ -18986,7 +18981,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" t="str">
         <f t="shared" si="4"/>
         <v>NORW</v>
@@ -18999,7 +18994,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" t="str">
         <f t="shared" si="4"/>
         <v>EIDO</v>
@@ -19012,7 +19007,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" t="str">
         <f t="shared" si="4"/>
         <v>EPHE</v>
@@ -19025,7 +19020,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" t="str">
         <f t="shared" si="4"/>
         <v>THD</v>
@@ -19038,7 +19033,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" t="str">
         <f t="shared" si="4"/>
         <v>TUR</v>
@@ -19051,7 +19046,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142" t="str">
         <f t="shared" si="4"/>
         <v>ECH</v>
@@ -19064,7 +19059,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3">
       <c r="A143" t="str">
         <f t="shared" si="4"/>
         <v>GXG</v>
@@ -19077,7 +19072,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" t="str">
         <f t="shared" si="4"/>
         <v>KSA</v>
@@ -19090,7 +19085,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3">
       <c r="A145" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -19103,7 +19098,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3">
       <c r="A146" t="str">
         <f t="shared" si="4"/>
         <v>ASHR</v>
@@ -19116,7 +19111,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3">
       <c r="A147" t="str">
         <f t="shared" si="4"/>
         <v>EIRL</v>
@@ -19129,7 +19124,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3">
       <c r="A148" t="str">
         <f t="shared" si="4"/>
         <v>EIS</v>
@@ -19142,7 +19137,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3">
       <c r="A149" t="str">
         <f t="shared" si="4"/>
         <v>EPI</v>
@@ -19155,7 +19150,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3">
       <c r="A150" t="str">
         <f t="shared" si="4"/>
         <v>FXI</v>
@@ -19168,7 +19163,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3">
       <c r="A151" t="str">
         <f t="shared" si="4"/>
         <v>IDX</v>
@@ -19181,7 +19176,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3">
       <c r="A152" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -19194,7 +19189,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3">
       <c r="A153" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -19204,7 +19199,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3">
       <c r="A154" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -19214,7 +19209,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3">
       <c r="A155" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -19227,7 +19222,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3">
       <c r="A156" t="str">
         <f t="shared" si="4"/>
         <v>QUAL</v>
@@ -19240,7 +19235,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3">
       <c r="A157" t="str">
         <f t="shared" si="4"/>
         <v>IVE</v>
@@ -19253,7 +19248,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3">
       <c r="A158" t="str">
         <f t="shared" si="4"/>
         <v>IVW</v>
@@ -19266,7 +19261,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3">
       <c r="A159" t="str">
         <f t="shared" si="4"/>
         <v>MTUM</v>
@@ -19279,7 +19274,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3">
       <c r="A160" t="str">
         <f t="shared" si="4"/>
         <v>EEMO</v>
@@ -19292,7 +19287,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3">
       <c r="A161" t="str">
         <f t="shared" si="4"/>
         <v>VIG</v>
@@ -19305,7 +19300,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3">
       <c r="A162" t="str">
         <f t="shared" si="4"/>
         <v>DVY</v>
@@ -19318,7 +19313,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3">
       <c r="A163" t="str">
         <f t="shared" si="4"/>
         <v>SPHB</v>
@@ -19331,7 +19326,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3">
       <c r="A164" t="str">
         <f t="shared" si="4"/>
         <v>USLB</v>
@@ -19344,7 +19339,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3">
       <c r="A165" t="str">
         <f t="shared" si="4"/>
         <v>SPLV</v>
@@ -19357,7 +19352,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3">
       <c r="A166" t="str">
         <f t="shared" si="4"/>
         <v>COWZ</v>
@@ -19370,7 +19365,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3">
       <c r="A167" t="str">
         <f t="shared" si="4"/>
         <v>DEF</v>
@@ -19383,7 +19378,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3">
       <c r="A168" t="str">
         <f t="shared" si="4"/>
         <v>EUSA</v>
@@ -19396,7 +19391,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3">
       <c r="A169" t="str">
         <f t="shared" si="4"/>
         <v>CSM</v>
@@ -19409,7 +19404,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3">
       <c r="A170" t="str">
         <f t="shared" si="4"/>
         <v>SHE</v>
@@ -19422,7 +19417,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3">
       <c r="A171" t="str">
         <f t="shared" si="4"/>
         <v>QYLD</v>
@@ -19435,7 +19430,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3">
       <c r="A172" t="str">
         <f t="shared" si="4"/>
         <v>GVIP</v>
@@ -19448,7 +19443,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3">
       <c r="A173" t="str">
         <f t="shared" si="4"/>
         <v>MOAT</v>
@@ -19461,7 +19456,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3">
       <c r="A174" t="str">
         <f t="shared" si="4"/>
         <v>FTLS</v>
@@ -19474,7 +19469,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3">
       <c r="A175" t="str">
         <f t="shared" si="4"/>
         <v>WTMF</v>
@@ -19487,7 +19482,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3">
       <c r="A176" t="str">
         <f t="shared" si="4"/>
         <v>MNA</v>
@@ -19500,7 +19495,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" t="str">
         <f t="shared" si="4"/>
         <v>SUSA</v>
@@ -19513,7 +19508,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178" t="str">
         <f t="shared" si="4"/>
         <v>IPO</v>
@@ -19526,7 +19521,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="A179" t="str">
         <f t="shared" si="4"/>
         <v>KNOW</v>
@@ -19539,7 +19534,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3">
       <c r="A180" t="str">
         <f t="shared" si="4"/>
         <v>NFO</v>
@@ -19552,7 +19547,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3">
       <c r="A181" t="str">
         <f t="shared" si="4"/>
         <v>IWM</v>
@@ -19565,7 +19560,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" t="str">
         <f t="shared" si="4"/>
         <v>XRLV</v>
@@ -19578,7 +19573,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -19588,7 +19583,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
       <c r="A184" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -19598,7 +19593,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3">
       <c r="A185" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -19611,7 +19606,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3">
       <c r="A186" t="str">
         <f t="shared" si="4"/>
         <v>UUP</v>
@@ -19624,7 +19619,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3">
       <c r="A187" t="str">
         <f t="shared" si="4"/>
         <v>FXY</v>
@@ -19637,7 +19632,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
       <c r="A188" t="str">
         <f t="shared" si="4"/>
         <v>FXE</v>
@@ -19650,7 +19645,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3">
       <c r="A189" t="str">
         <f t="shared" si="4"/>
         <v>FXA</v>
@@ -19663,7 +19658,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="A190" t="str">
         <f t="shared" si="4"/>
         <v>FXC</v>
@@ -19676,7 +19671,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3">
       <c r="A191" t="str">
         <f t="shared" si="4"/>
         <v>FXF</v>
@@ -19689,7 +19684,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192" t="str">
         <f t="shared" si="4"/>
         <v>FXB</v>
@@ -19702,7 +19697,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" t="str">
         <f t="shared" si="4"/>
         <v>UDN</v>
@@ -19715,7 +19710,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
       <c r="A194" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -19725,7 +19720,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3">
       <c r="A195" t="e">
         <f t="shared" ref="A195:A258" si="6">TRIM(SUBSTITUTE(UPPER(LEFT(C195, FIND("_", C195)-1)), "'", ""))</f>
         <v>#VALUE!</v>
@@ -19735,7 +19730,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3">
       <c r="A196" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -19748,7 +19743,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" t="str">
         <f t="shared" si="6"/>
         <v>DBC</v>
@@ -19761,7 +19756,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" t="str">
         <f t="shared" si="6"/>
         <v>USO</v>
@@ -19774,7 +19769,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3">
       <c r="A199" t="str">
         <f t="shared" si="6"/>
         <v>GLD</v>
@@ -19787,7 +19782,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="A200" t="str">
         <f t="shared" si="6"/>
         <v>SLV</v>
@@ -19800,7 +19795,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3">
       <c r="A201" t="str">
         <f t="shared" si="6"/>
         <v>DBA</v>
@@ -19813,7 +19808,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3">
       <c r="A202" t="str">
         <f t="shared" si="6"/>
         <v>UNG</v>
@@ -19826,7 +19821,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3">
       <c r="A203" t="str">
         <f t="shared" si="6"/>
         <v>DBE</v>
@@ -19839,7 +19834,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3">
       <c r="A204" t="str">
         <f t="shared" si="6"/>
         <v>DBB</v>
@@ -19852,7 +19847,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3">
       <c r="A205" t="str">
         <f t="shared" si="6"/>
         <v>GLTR</v>
@@ -19865,7 +19860,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3">
       <c r="A206" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -19875,7 +19870,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3">
       <c r="A207" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -19885,7 +19880,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3">
       <c r="A208" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -19898,7 +19893,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3">
       <c r="A209" t="str">
         <f t="shared" si="6"/>
         <v>AGG</v>
@@ -19911,7 +19906,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3">
       <c r="A210" t="str">
         <f t="shared" si="6"/>
         <v>BIL</v>
@@ -19924,7 +19919,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3">
       <c r="A211" t="str">
         <f t="shared" si="6"/>
         <v>SHY</v>
@@ -19937,7 +19932,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3">
       <c r="A212" t="str">
         <f t="shared" si="6"/>
         <v>IEF</v>
@@ -19950,7 +19945,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3">
       <c r="A213" t="str">
         <f t="shared" si="6"/>
         <v>TLT</v>
@@ -19963,7 +19958,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3">
       <c r="A214" t="str">
         <f t="shared" si="6"/>
         <v>TIP</v>
@@ -19976,7 +19971,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3">
       <c r="A215" t="str">
         <f t="shared" si="6"/>
         <v>LQD</v>
@@ -19989,7 +19984,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3">
       <c r="A216" t="str">
         <f t="shared" si="6"/>
         <v>HYG</v>
@@ -20002,7 +19997,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3">
       <c r="A217" t="str">
         <f t="shared" si="6"/>
         <v>MBB</v>
@@ -20015,7 +20010,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3">
       <c r="A218" t="str">
         <f t="shared" si="6"/>
         <v>MUB</v>
@@ -20028,7 +20023,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3">
       <c r="A219" t="str">
         <f t="shared" si="6"/>
         <v>BKLN</v>
@@ -20041,7 +20036,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3">
       <c r="A220" t="str">
         <f t="shared" si="6"/>
         <v>CWB</v>
@@ -20054,7 +20049,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3">
       <c r="A221" t="str">
         <f t="shared" si="6"/>
         <v>HYD</v>
@@ -20067,7 +20062,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3">
       <c r="A222" t="str">
         <f t="shared" si="6"/>
         <v>PFF</v>
@@ -20080,7 +20075,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3">
       <c r="A223" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -20093,7 +20088,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3">
       <c r="A224" t="str">
         <f t="shared" si="6"/>
         <v>SHY</v>
@@ -20106,7 +20101,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3">
       <c r="A225" t="str">
         <f t="shared" si="6"/>
         <v>IEF</v>
@@ -20119,7 +20114,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3">
       <c r="A226" t="str">
         <f t="shared" si="6"/>
         <v>TLT</v>
@@ -20132,7 +20127,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3">
       <c r="A227" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -20142,7 +20137,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3">
       <c r="A228" t="str">
         <f t="shared" si="6"/>
         <v>TMF</v>
@@ -20155,7 +20150,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3">
       <c r="A229" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -20168,7 +20163,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3">
       <c r="A230" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -20178,7 +20173,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3">
       <c r="A231" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -20191,7 +20186,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3">
       <c r="A232" t="str">
         <f t="shared" si="6"/>
         <v>BWX</v>
@@ -20204,7 +20199,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3">
       <c r="A233" t="str">
         <f t="shared" si="6"/>
         <v>WIP</v>
@@ -20217,7 +20212,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3">
       <c r="A234" t="str">
         <f t="shared" si="6"/>
         <v>BNDX</v>
@@ -20230,7 +20225,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3">
       <c r="A235" t="str">
         <f t="shared" si="6"/>
         <v>IGOV</v>
@@ -20243,7 +20238,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3">
       <c r="A236" t="str">
         <f t="shared" si="6"/>
         <v>FLOT</v>
@@ -20256,7 +20251,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3">
       <c r="A237" t="str">
         <f t="shared" si="6"/>
         <v>PICB</v>
@@ -20269,7 +20264,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3">
       <c r="A238" t="str">
         <f t="shared" si="6"/>
         <v>HYXU</v>
@@ -20282,7 +20277,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3">
       <c r="A239" t="str">
         <f t="shared" si="6"/>
         <v>EMB</v>
@@ -20295,7 +20290,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3">
       <c r="A240" t="str">
         <f t="shared" si="6"/>
         <v>EMLC</v>
@@ -20308,7 +20303,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3">
       <c r="A241" t="str">
         <f t="shared" si="6"/>
         <v>EMHY</v>
@@ -20321,7 +20316,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3">
       <c r="A242" t="str">
         <f t="shared" si="6"/>
         <v>DSUM</v>
@@ -20334,7 +20329,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3">
       <c r="A243" t="str">
         <f t="shared" si="6"/>
         <v>114260</v>
@@ -20347,7 +20342,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3">
       <c r="A244" t="str">
         <f t="shared" si="6"/>
         <v>148070</v>
@@ -20360,7 +20355,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3">
       <c r="A245" t="str">
         <f t="shared" si="6"/>
         <v>167860</v>
@@ -20373,7 +20368,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3">
       <c r="A246" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -20383,7 +20378,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3">
       <c r="A247" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -20393,7 +20388,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3">
       <c r="A248" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -20406,7 +20401,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3">
       <c r="A249" t="str">
         <f t="shared" si="6"/>
         <v>ACWI</v>
@@ -20419,7 +20414,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3">
       <c r="A250" t="str">
         <f t="shared" si="6"/>
         <v>VTI</v>
@@ -20432,7 +20427,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3">
       <c r="A251" t="str">
         <f t="shared" si="6"/>
         <v>GWX</v>
@@ -20445,7 +20440,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3">
       <c r="A252" t="str">
         <f t="shared" si="6"/>
         <v>VEU</v>
@@ -20458,7 +20453,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3">
       <c r="A253" t="str">
         <f t="shared" si="6"/>
         <v>IEV</v>
@@ -20471,7 +20466,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3">
       <c r="A254" t="str">
         <f t="shared" si="6"/>
         <v>EFA</v>
@@ -20484,7 +20479,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3">
       <c r="A255" t="str">
         <f t="shared" si="6"/>
         <v>EEM</v>
@@ -20497,7 +20492,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3">
       <c r="A256" t="str">
         <f t="shared" si="6"/>
         <v>AAXJ</v>
@@ -20510,7 +20505,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3">
       <c r="A257" t="str">
         <f t="shared" si="6"/>
         <v>BKF</v>
@@ -20523,7 +20518,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3">
       <c r="A258" t="str">
         <f t="shared" si="6"/>
         <v>FM</v>
@@ -20536,7 +20531,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3">
       <c r="A259" t="str">
         <f t="shared" ref="A259:A267" si="8">TRIM(SUBSTITUTE(UPPER(LEFT(C259, FIND("_", C259)-1)), "'", ""))</f>
         <v>ILF</v>
@@ -20549,7 +20544,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3">
       <c r="A260" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -20562,7 +20557,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3">
       <c r="A261" t="str">
         <f t="shared" si="8"/>
         <v>FRN</v>
@@ -20575,7 +20570,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3">
       <c r="A262" t="str">
         <f t="shared" si="8"/>
         <v>#GAF</v>
@@ -20588,7 +20583,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3">
       <c r="A263" t="str">
         <f t="shared" si="8"/>
         <v>GULF</v>
@@ -20601,7 +20596,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3">
       <c r="A264" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -20614,7 +20609,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3">
       <c r="A265" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -20627,7 +20622,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3">
       <c r="A266" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -20640,7 +20635,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3">
       <c r="A267" t="str">
         <f t="shared" si="8"/>
         <v>AOM</v>
@@ -20660,17 +20655,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O208"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="L194" sqref="L194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.875" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="3" bestFit="1" customWidth="1"/>
@@ -20689,8 +20684,8 @@
     <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="10.5" customHeight="1"/>
+    <row r="2" spans="2:15" ht="31.5" customHeight="1">
       <c r="B2" s="3" t="s">
         <v>247</v>
       </c>
@@ -20734,7 +20729,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15">
       <c r="B3" s="6" t="s">
         <v>219</v>
       </c>
@@ -20778,7 +20773,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15">
       <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -20820,7 +20815,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15">
       <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -20862,7 +20857,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15">
       <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -20904,7 +20899,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15">
       <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -20946,7 +20941,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15">
       <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -20988,7 +20983,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15">
       <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -21030,7 +21025,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15">
       <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -21072,7 +21067,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15">
       <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -21114,7 +21109,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15">
       <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -21156,7 +21151,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15">
       <c r="B13" s="6"/>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -21198,7 +21193,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15">
       <c r="B14" s="6" t="s">
         <v>220</v>
       </c>
@@ -21242,7 +21237,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15">
       <c r="B15" s="6"/>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -21284,7 +21279,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15">
       <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -21326,7 +21321,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15">
       <c r="B17" s="6"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -21368,7 +21363,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15">
       <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -21410,7 +21405,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15">
       <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
         <v>16</v>
@@ -21452,7 +21447,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15">
       <c r="B20" s="6"/>
       <c r="C20" s="2" t="s">
         <v>17</v>
@@ -21494,7 +21489,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15">
       <c r="B21" s="6"/>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -21536,7 +21531,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15">
       <c r="B22" s="6"/>
       <c r="C22" s="2" t="s">
         <v>19</v>
@@ -21578,7 +21573,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15">
       <c r="B23" s="6"/>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -21620,7 +21615,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15">
       <c r="B24" s="6"/>
       <c r="C24" s="2" t="s">
         <v>21</v>
@@ -21662,7 +21657,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15">
       <c r="B25" s="6" t="s">
         <v>221</v>
       </c>
@@ -21706,7 +21701,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15">
       <c r="B26" s="6"/>
       <c r="C26" s="2" t="s">
         <v>23</v>
@@ -21748,7 +21743,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15">
       <c r="B27" s="6"/>
       <c r="C27" s="2" t="s">
         <v>24</v>
@@ -21790,7 +21785,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15">
       <c r="B28" s="6"/>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -21832,7 +21827,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15">
       <c r="B29" s="6"/>
       <c r="C29" s="2" t="s">
         <v>26</v>
@@ -21874,7 +21869,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15">
       <c r="B30" s="6" t="s">
         <v>222</v>
       </c>
@@ -21918,7 +21913,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15">
       <c r="B31" s="6"/>
       <c r="C31" s="2" t="s">
         <v>28</v>
@@ -21960,7 +21955,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15">
       <c r="B32" s="6" t="s">
         <v>224</v>
       </c>
@@ -22004,7 +21999,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15">
       <c r="B33" s="6"/>
       <c r="C33" s="2" t="s">
         <v>30</v>
@@ -22046,7 +22041,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15">
       <c r="B34" s="6"/>
       <c r="C34" s="2" t="s">
         <v>31</v>
@@ -22088,7 +22083,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15">
       <c r="B35" s="6"/>
       <c r="C35" s="2" t="s">
         <v>32</v>
@@ -22130,7 +22125,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15">
       <c r="B36" s="6"/>
       <c r="C36" s="2" t="s">
         <v>33</v>
@@ -22172,7 +22167,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15">
       <c r="B37" s="6"/>
       <c r="C37" s="2" t="s">
         <v>34</v>
@@ -22214,7 +22209,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15">
       <c r="B38" s="6" t="s">
         <v>226</v>
       </c>
@@ -22258,7 +22253,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15">
       <c r="B39" s="6"/>
       <c r="C39" s="2" t="s">
         <v>36</v>
@@ -22300,7 +22295,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15">
       <c r="B40" s="6"/>
       <c r="C40" s="2" t="s">
         <v>37</v>
@@ -22342,7 +22337,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15">
       <c r="B41" s="6"/>
       <c r="C41" s="2" t="s">
         <v>38</v>
@@ -22384,7 +22379,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15">
       <c r="B42" s="6"/>
       <c r="C42" s="2" t="s">
         <v>39</v>
@@ -22426,7 +22421,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15">
       <c r="B43" s="6"/>
       <c r="C43" s="2" t="s">
         <v>40</v>
@@ -22468,7 +22463,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15">
       <c r="B44" s="6"/>
       <c r="C44" s="2" t="s">
         <v>41</v>
@@ -22510,7 +22505,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15">
       <c r="B45" s="6"/>
       <c r="C45" s="2" t="s">
         <v>42</v>
@@ -22552,7 +22547,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15">
       <c r="B46" s="6"/>
       <c r="C46" s="2" t="s">
         <v>43</v>
@@ -22594,7 +22589,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15">
       <c r="B47" s="6" t="s">
         <v>228</v>
       </c>
@@ -22638,7 +22633,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15">
       <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
         <v>45</v>
@@ -22680,7 +22675,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:15">
       <c r="B49" s="6"/>
       <c r="C49" s="2" t="s">
         <v>46</v>
@@ -22722,7 +22717,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:15">
       <c r="B50" s="6"/>
       <c r="C50" s="2" t="s">
         <v>47</v>
@@ -22764,7 +22759,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:15">
       <c r="B51" s="6" t="s">
         <v>230</v>
       </c>
@@ -22808,7 +22803,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:15">
       <c r="B52" s="6"/>
       <c r="C52" s="2" t="s">
         <v>49</v>
@@ -22850,7 +22845,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:15">
       <c r="B53" s="6"/>
       <c r="C53" s="2" t="s">
         <v>50</v>
@@ -22892,7 +22887,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:15">
       <c r="B54" s="6"/>
       <c r="C54" s="2" t="s">
         <v>51</v>
@@ -22934,7 +22929,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:15">
       <c r="B55" s="6" t="s">
         <v>232</v>
       </c>
@@ -22978,7 +22973,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:15">
       <c r="B56" s="6"/>
       <c r="C56" s="2" t="s">
         <v>53</v>
@@ -23020,7 +23015,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:15">
       <c r="B57" s="6"/>
       <c r="C57" s="2" t="s">
         <v>54</v>
@@ -23062,7 +23057,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:15">
       <c r="B58" s="6"/>
       <c r="C58" s="2" t="s">
         <v>55</v>
@@ -23104,7 +23099,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:15">
       <c r="B59" s="6"/>
       <c r="C59" s="2" t="s">
         <v>56</v>
@@ -23146,7 +23141,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:15">
       <c r="B60" s="6"/>
       <c r="C60" s="2" t="s">
         <v>57</v>
@@ -23188,7 +23183,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:15">
       <c r="B61" s="6"/>
       <c r="C61" s="2" t="s">
         <v>58</v>
@@ -23230,7 +23225,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:15">
       <c r="B62" s="6"/>
       <c r="C62" s="2" t="s">
         <v>59</v>
@@ -23272,7 +23267,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:15">
       <c r="B63" s="6"/>
       <c r="C63" s="2" t="s">
         <v>60</v>
@@ -23314,7 +23309,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:15">
       <c r="B64" s="6"/>
       <c r="C64" s="2" t="s">
         <v>61</v>
@@ -23356,7 +23351,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:15">
       <c r="B65" s="6" t="s">
         <v>234</v>
       </c>
@@ -23400,7 +23395,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:15">
       <c r="B66" s="6"/>
       <c r="C66" s="2" t="s">
         <v>64</v>
@@ -23442,7 +23437,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:15">
       <c r="B67" s="6"/>
       <c r="C67" s="2" t="s">
         <v>65</v>
@@ -23484,7 +23479,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:15">
       <c r="B68" s="6"/>
       <c r="C68" s="2" t="s">
         <v>66</v>
@@ -23526,7 +23521,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:15">
       <c r="B69" s="6"/>
       <c r="C69" s="2" t="s">
         <v>67</v>
@@ -23568,7 +23563,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:15">
       <c r="B70" s="6"/>
       <c r="C70" s="2" t="s">
         <v>68</v>
@@ -23610,7 +23605,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:15">
       <c r="B71" s="6"/>
       <c r="C71" s="2" t="s">
         <v>69</v>
@@ -23652,7 +23647,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:15">
       <c r="B72" s="3" t="s">
         <v>236</v>
       </c>
@@ -23696,7 +23691,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:15">
       <c r="B73" s="6" t="s">
         <v>238</v>
       </c>
@@ -23740,7 +23735,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:15">
       <c r="B74" s="6"/>
       <c r="C74" s="2" t="s">
         <v>72</v>
@@ -23782,7 +23777,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:15">
       <c r="B75" s="6" t="s">
         <v>239</v>
       </c>
@@ -23826,7 +23821,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:15">
       <c r="B76" s="6"/>
       <c r="C76" s="2" t="s">
         <v>74</v>
@@ -23868,7 +23863,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:15">
       <c r="B77" s="6"/>
       <c r="C77" s="2" t="s">
         <v>75</v>
@@ -23910,7 +23905,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:15">
       <c r="B78" s="6"/>
       <c r="C78" s="2" t="s">
         <v>76</v>
@@ -23952,7 +23947,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:15">
       <c r="B79" s="6"/>
       <c r="C79" s="2" t="s">
         <v>77</v>
@@ -23994,7 +23989,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:15">
       <c r="B80" s="6"/>
       <c r="C80" s="2" t="s">
         <v>78</v>
@@ -24036,7 +24031,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:15">
       <c r="B81" s="6"/>
       <c r="C81" s="2" t="s">
         <v>79</v>
@@ -24078,7 +24073,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:15">
       <c r="B82" s="6"/>
       <c r="C82" s="2" t="s">
         <v>80</v>
@@ -24120,7 +24115,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:15">
       <c r="B83" s="6"/>
       <c r="C83" s="2" t="s">
         <v>81</v>
@@ -24162,7 +24157,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:15">
       <c r="B84" s="6"/>
       <c r="C84" s="2" t="s">
         <v>82</v>
@@ -24204,7 +24199,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:15">
       <c r="B85" s="6"/>
       <c r="C85" s="2" t="s">
         <v>83</v>
@@ -24246,7 +24241,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:15">
       <c r="B86" s="6"/>
       <c r="C86" s="2" t="s">
         <v>84</v>
@@ -24288,7 +24283,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:15">
       <c r="B87" s="6"/>
       <c r="C87" s="2" t="s">
         <v>85</v>
@@ -24330,7 +24325,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:15">
       <c r="B88" s="6"/>
       <c r="C88" s="2" t="s">
         <v>86</v>
@@ -24372,7 +24367,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:15">
       <c r="B89" s="6"/>
       <c r="C89" s="2" t="s">
         <v>87</v>
@@ -24414,7 +24409,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:15">
       <c r="B90" s="6"/>
       <c r="C90" s="2" t="s">
         <v>88</v>
@@ -24456,7 +24451,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:15">
       <c r="B91" s="6"/>
       <c r="C91" s="2" t="s">
         <v>89</v>
@@ -24498,7 +24493,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:15">
       <c r="B92" s="6"/>
       <c r="C92" s="2" t="s">
         <v>90</v>
@@ -24540,7 +24535,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:15">
       <c r="B93" s="6"/>
       <c r="C93" s="2" t="s">
         <v>91</v>
@@ -24582,7 +24577,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:15">
       <c r="B94" s="6"/>
       <c r="C94" s="2" t="s">
         <v>92</v>
@@ -24624,7 +24619,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:15">
       <c r="B95" s="6"/>
       <c r="C95" s="2" t="s">
         <v>93</v>
@@ -24666,7 +24661,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:15">
       <c r="B96" s="6"/>
       <c r="C96" s="2" t="s">
         <v>94</v>
@@ -24708,7 +24703,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:15">
       <c r="B97" s="6"/>
       <c r="C97" s="2" t="s">
         <v>95</v>
@@ -24750,7 +24745,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:15">
       <c r="B98" s="6"/>
       <c r="C98" s="2" t="s">
         <v>96</v>
@@ -24792,7 +24787,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:15">
       <c r="B99" s="6"/>
       <c r="C99" s="2" t="s">
         <v>97</v>
@@ -24834,7 +24829,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:15">
       <c r="B100" s="6"/>
       <c r="C100" s="2" t="s">
         <v>98</v>
@@ -24876,7 +24871,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:15">
       <c r="B101" s="6"/>
       <c r="C101" s="2" t="s">
         <v>99</v>
@@ -24918,7 +24913,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:15">
       <c r="B102" s="6"/>
       <c r="C102" s="2" t="s">
         <v>100</v>
@@ -24960,7 +24955,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:15">
       <c r="B103" s="6"/>
       <c r="C103" s="2" t="s">
         <v>101</v>
@@ -25002,7 +24997,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:15">
       <c r="B104" s="6"/>
       <c r="C104" s="2" t="s">
         <v>102</v>
@@ -25044,7 +25039,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:15">
       <c r="B105" s="6"/>
       <c r="C105" s="2" t="s">
         <v>103</v>
@@ -25086,7 +25081,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:15">
       <c r="B106" s="6"/>
       <c r="C106" s="2" t="s">
         <v>104</v>
@@ -25128,7 +25123,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:15">
       <c r="B107" s="6"/>
       <c r="C107" s="2" t="s">
         <v>105</v>
@@ -25170,7 +25165,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:15">
       <c r="B108" s="6"/>
       <c r="C108" s="2" t="s">
         <v>106</v>
@@ -25212,7 +25207,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:15">
       <c r="B109" s="6"/>
       <c r="C109" s="2" t="s">
         <v>107</v>
@@ -25254,7 +25249,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:15">
       <c r="B110" s="6"/>
       <c r="C110" s="2" t="s">
         <v>108</v>
@@ -25296,7 +25291,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:15">
       <c r="B111" s="6"/>
       <c r="C111" s="2" t="s">
         <v>109</v>
@@ -25338,7 +25333,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:15">
       <c r="B112" s="6"/>
       <c r="C112" s="2" t="s">
         <v>110</v>
@@ -25380,7 +25375,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:15">
       <c r="B113" s="6"/>
       <c r="C113" s="2" t="s">
         <v>111</v>
@@ -25422,7 +25417,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:15">
       <c r="B114" s="6"/>
       <c r="C114" s="2" t="s">
         <v>112</v>
@@ -25464,7 +25459,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:15">
       <c r="B115" s="6"/>
       <c r="C115" s="2" t="s">
         <v>113</v>
@@ -25506,7 +25501,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:15">
       <c r="B116" s="6"/>
       <c r="C116" s="2" t="s">
         <v>62</v>
@@ -25548,7 +25543,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:15">
       <c r="B117" s="6"/>
       <c r="C117" s="2" t="s">
         <v>114</v>
@@ -25590,7 +25585,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:15">
       <c r="B118" s="6"/>
       <c r="C118" s="2" t="s">
         <v>115</v>
@@ -25632,7 +25627,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:15">
       <c r="B119" s="6"/>
       <c r="C119" s="2" t="s">
         <v>116</v>
@@ -25674,7 +25669,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:15">
       <c r="B120" s="6"/>
       <c r="C120" s="2" t="s">
         <v>117</v>
@@ -25716,7 +25711,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:15">
       <c r="B121" s="6"/>
       <c r="C121" s="2" t="s">
         <v>118</v>
@@ -25758,7 +25753,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:15">
       <c r="B122" s="6"/>
       <c r="C122" s="2" t="s">
         <v>119</v>
@@ -25800,7 +25795,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:15">
       <c r="B123" s="6"/>
       <c r="C123" s="2" t="s">
         <v>120</v>
@@ -25842,7 +25837,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:15">
       <c r="B124" s="6"/>
       <c r="C124" s="2" t="s">
         <v>121</v>
@@ -25884,7 +25879,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:15">
       <c r="B125" s="6" t="s">
         <v>240</v>
       </c>
@@ -25928,7 +25923,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:15">
       <c r="B126" s="6"/>
       <c r="C126" s="2" t="s">
         <v>123</v>
@@ -25970,7 +25965,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:15">
       <c r="B127" s="6"/>
       <c r="C127" s="2" t="s">
         <v>124</v>
@@ -26012,7 +26007,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:15">
       <c r="B128" s="6"/>
       <c r="C128" s="2" t="s">
         <v>125</v>
@@ -26054,7 +26049,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:15">
       <c r="B129" s="6"/>
       <c r="C129" s="2" t="s">
         <v>126</v>
@@ -26096,7 +26091,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:15">
       <c r="B130" s="6"/>
       <c r="C130" s="2" t="s">
         <v>127</v>
@@ -26138,7 +26133,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:15">
       <c r="B131" s="6"/>
       <c r="C131" s="2" t="s">
         <v>128</v>
@@ -26180,7 +26175,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:15">
       <c r="B132" s="6"/>
       <c r="C132" s="2" t="s">
         <v>129</v>
@@ -26222,7 +26217,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:15">
       <c r="B133" s="6"/>
       <c r="C133" s="2" t="s">
         <v>130</v>
@@ -26264,7 +26259,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:15">
       <c r="B134" s="6"/>
       <c r="C134" s="2" t="s">
         <v>131</v>
@@ -26306,7 +26301,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:15">
       <c r="B135" s="6"/>
       <c r="C135" s="2" t="s">
         <v>132</v>
@@ -26348,7 +26343,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:15">
       <c r="B136" s="6"/>
       <c r="C136" s="2" t="s">
         <v>133</v>
@@ -26390,7 +26385,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:15">
       <c r="B137" s="6"/>
       <c r="C137" s="2" t="s">
         <v>134</v>
@@ -26432,7 +26427,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:15">
       <c r="B138" s="6"/>
       <c r="C138" s="2" t="s">
         <v>135</v>
@@ -26474,7 +26469,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:15">
       <c r="B139" s="6"/>
       <c r="C139" s="2" t="s">
         <v>136</v>
@@ -26516,7 +26511,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:15">
       <c r="B140" s="6"/>
       <c r="C140" s="2" t="s">
         <v>137</v>
@@ -26558,7 +26553,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:15">
       <c r="B141" s="6"/>
       <c r="C141" s="2" t="s">
         <v>138</v>
@@ -26600,7 +26595,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:15">
       <c r="B142" s="6"/>
       <c r="C142" s="2" t="s">
         <v>139</v>
@@ -26642,7 +26637,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:15">
       <c r="B143" s="6"/>
       <c r="C143" s="2" t="s">
         <v>140</v>
@@ -26684,7 +26679,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:15">
       <c r="B144" s="6"/>
       <c r="C144" s="2" t="s">
         <v>141</v>
@@ -26726,7 +26721,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:15">
       <c r="B145" s="6"/>
       <c r="C145" s="2" t="s">
         <v>142</v>
@@ -26768,7 +26763,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:15">
       <c r="B146" s="6"/>
       <c r="C146" s="2" t="s">
         <v>143</v>
@@ -26810,7 +26805,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:15">
       <c r="B147" s="6"/>
       <c r="C147" s="2" t="s">
         <v>144</v>
@@ -26852,7 +26847,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:15">
       <c r="B148" s="6"/>
       <c r="C148" s="2" t="s">
         <v>145</v>
@@ -26894,7 +26889,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:15">
       <c r="B149" s="6"/>
       <c r="C149" s="2" t="s">
         <v>146</v>
@@ -26936,7 +26931,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:15">
       <c r="B150" s="6"/>
       <c r="C150" s="2" t="s">
         <v>147</v>
@@ -26978,7 +26973,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:15">
       <c r="B151" s="6"/>
       <c r="C151" s="2" t="s">
         <v>148</v>
@@ -27020,7 +27015,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:15">
       <c r="B152" s="6" t="s">
         <v>241</v>
       </c>
@@ -27064,7 +27059,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:15">
       <c r="B153" s="6"/>
       <c r="C153" s="2" t="s">
         <v>150</v>
@@ -27106,7 +27101,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:15">
       <c r="B154" s="6"/>
       <c r="C154" s="2" t="s">
         <v>151</v>
@@ -27148,7 +27143,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:15">
       <c r="B155" s="6"/>
       <c r="C155" s="2" t="s">
         <v>152</v>
@@ -27190,7 +27185,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:15">
       <c r="B156" s="6"/>
       <c r="C156" s="2" t="s">
         <v>153</v>
@@ -27232,7 +27227,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:15">
       <c r="B157" s="6"/>
       <c r="C157" s="2" t="s">
         <v>154</v>
@@ -27274,7 +27269,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:15">
       <c r="B158" s="6"/>
       <c r="C158" s="2" t="s">
         <v>155</v>
@@ -27316,7 +27311,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:15">
       <c r="B159" s="6"/>
       <c r="C159" s="2" t="s">
         <v>156</v>
@@ -27358,7 +27353,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:15">
       <c r="B160" s="6" t="s">
         <v>242</v>
       </c>
@@ -27402,7 +27397,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="161" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:15">
       <c r="B161" s="6"/>
       <c r="C161" s="2" t="s">
         <v>158</v>
@@ -27444,7 +27439,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="162" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:15">
       <c r="B162" s="6"/>
       <c r="C162" s="2" t="s">
         <v>159</v>
@@ -27486,7 +27481,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="163" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:15">
       <c r="B163" s="6"/>
       <c r="C163" s="2" t="s">
         <v>160</v>
@@ -27528,7 +27523,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="164" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:15">
       <c r="B164" s="6"/>
       <c r="C164" s="2" t="s">
         <v>161</v>
@@ -27570,7 +27565,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="165" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:15">
       <c r="B165" s="6"/>
       <c r="C165" s="2" t="s">
         <v>162</v>
@@ -27612,7 +27607,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="166" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:15">
       <c r="B166" s="6"/>
       <c r="C166" s="2" t="s">
         <v>163</v>
@@ -27654,7 +27649,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="167" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:15">
       <c r="B167" s="6"/>
       <c r="C167" s="2" t="s">
         <v>164</v>
@@ -27696,7 +27691,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="168" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:15">
       <c r="B168" s="6"/>
       <c r="C168" s="2" t="s">
         <v>165</v>
@@ -27738,7 +27733,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="169" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:15">
       <c r="B169" s="6" t="s">
         <v>243</v>
       </c>
@@ -27782,7 +27777,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="170" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:15">
       <c r="B170" s="6"/>
       <c r="C170" s="2" t="s">
         <v>194</v>
@@ -27824,7 +27819,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="171" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:15">
       <c r="B171" s="6"/>
       <c r="C171" s="2" t="s">
         <v>195</v>
@@ -27866,7 +27861,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="172" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:15">
       <c r="B172" s="6"/>
       <c r="C172" s="2" t="s">
         <v>196</v>
@@ -27908,7 +27903,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="173" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:15">
       <c r="B173" s="6"/>
       <c r="C173" s="2" t="s">
         <v>197</v>
@@ -27950,7 +27945,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="174" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:15">
       <c r="B174" s="6"/>
       <c r="C174" s="2" t="s">
         <v>167</v>
@@ -27992,7 +27987,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="175" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:15">
       <c r="B175" s="6"/>
       <c r="C175" s="2" t="s">
         <v>198</v>
@@ -28034,7 +28029,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="176" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:15">
       <c r="B176" s="6"/>
       <c r="C176" s="2" t="s">
         <v>199</v>
@@ -28076,7 +28071,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="177" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:15">
       <c r="B177" s="6"/>
       <c r="C177" s="2" t="s">
         <v>200</v>
@@ -28118,7 +28113,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="178" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:15">
       <c r="B178" s="6"/>
       <c r="C178" s="2" t="s">
         <v>201</v>
@@ -28160,7 +28155,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="179" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:15">
       <c r="B179" s="6"/>
       <c r="C179" s="2" t="s">
         <v>202</v>
@@ -28202,7 +28197,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="180" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:15">
       <c r="B180" s="6"/>
       <c r="C180" s="2" t="s">
         <v>203</v>
@@ -28244,7 +28239,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="181" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:15">
       <c r="B181" s="6"/>
       <c r="C181" s="2" t="s">
         <v>204</v>
@@ -28286,7 +28281,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="182" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:15">
       <c r="B182" s="6"/>
       <c r="C182" s="2" t="s">
         <v>205</v>
@@ -28328,7 +28323,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="183" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:15">
       <c r="B183" s="6"/>
       <c r="C183" s="2" t="s">
         <v>168</v>
@@ -28370,7 +28365,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="184" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:15">
       <c r="B184" s="6" t="s">
         <v>244</v>
       </c>
@@ -28414,7 +28409,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="185" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:15">
       <c r="B185" s="6"/>
       <c r="C185" s="2" t="s">
         <v>170</v>
@@ -28456,7 +28451,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="186" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:15">
       <c r="B186" s="6"/>
       <c r="C186" s="2" t="s">
         <v>171</v>
@@ -28498,7 +28493,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="187" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:15">
       <c r="B187" s="6"/>
       <c r="C187" s="2" t="s">
         <v>172</v>
@@ -28540,7 +28535,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="188" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:15">
       <c r="B188" s="6"/>
       <c r="C188" s="2" t="s">
         <v>173</v>
@@ -28582,7 +28577,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="189" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:15">
       <c r="B189" s="6"/>
       <c r="C189" s="2" t="s">
         <v>174</v>
@@ -28624,7 +28619,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="190" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:15">
       <c r="B190" s="6"/>
       <c r="C190" s="2" t="s">
         <v>175</v>
@@ -28666,7 +28661,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="191" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:15">
       <c r="B191" s="6"/>
       <c r="C191" s="2" t="s">
         <v>176</v>
@@ -28708,7 +28703,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="192" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:15">
       <c r="B192" s="6"/>
       <c r="C192" s="2" t="s">
         <v>177</v>
@@ -28750,7 +28745,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="193" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:15">
       <c r="B193" s="6"/>
       <c r="C193" s="2" t="s">
         <v>178</v>
@@ -28792,7 +28787,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:15">
       <c r="B194" s="6"/>
       <c r="C194" s="2" t="s">
         <v>179</v>
@@ -28834,7 +28829,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:15">
       <c r="B195" s="6" t="s">
         <v>245</v>
       </c>
@@ -28878,7 +28873,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:15">
       <c r="B196" s="6"/>
       <c r="C196" s="2" t="s">
         <v>206</v>
@@ -28920,7 +28915,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:15">
       <c r="B197" s="6"/>
       <c r="C197" s="2" t="s">
         <v>207</v>
@@ -28962,7 +28957,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:15">
       <c r="B198" s="6"/>
       <c r="C198" s="2" t="s">
         <v>208</v>
@@ -29004,7 +28999,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:15">
       <c r="B199" s="6"/>
       <c r="C199" s="2" t="s">
         <v>209</v>
@@ -29046,7 +29041,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:15">
       <c r="B200" s="6"/>
       <c r="C200" s="2" t="s">
         <v>210</v>
@@ -29088,7 +29083,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="201" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:15">
       <c r="B201" s="6"/>
       <c r="C201" s="2" t="s">
         <v>211</v>
@@ -29130,7 +29125,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:15">
       <c r="B202" s="6"/>
       <c r="C202" s="2" t="s">
         <v>212</v>
@@ -29172,7 +29167,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:15">
       <c r="B203" s="6"/>
       <c r="C203" s="2" t="s">
         <v>213</v>
@@ -29214,7 +29209,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="204" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:15">
       <c r="B204" s="6"/>
       <c r="C204" s="2" t="s">
         <v>214</v>
@@ -29256,7 +29251,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="205" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:15">
       <c r="B205" s="6"/>
       <c r="C205" s="2" t="s">
         <v>215</v>
@@ -29298,7 +29293,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="206" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:15">
       <c r="B206" s="6"/>
       <c r="C206" s="2" t="s">
         <v>216</v>
@@ -29340,7 +29335,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="207" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:15">
       <c r="B207" s="6"/>
       <c r="C207" s="2" t="s">
         <v>217</v>
@@ -29382,7 +29377,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="208" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:15">
       <c r="B208" s="3" t="s">
         <v>246</v>
       </c>
@@ -29428,6 +29423,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B37"/>
     <mergeCell ref="B195:B207"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="B51:B54"/>
@@ -29440,12 +29441,6 @@
     <mergeCell ref="B160:B168"/>
     <mergeCell ref="B169:B183"/>
     <mergeCell ref="B184:B194"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
